--- a/SATIM/DataSpreadsheets/TCH_CCS.xlsx
+++ b/SATIM/DataSpreadsheets/TCH_CCS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE\SATIM\DataSpreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FE33E01-CF8C-48A0-9321-E53FB05DC1E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A04C90-3D33-4918-9E46-96837EC5D8D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="600" windowWidth="25575" windowHeight="15600" firstSheet="1" activeTab="11" xr2:uid="{55565E65-86A1-4E53-88BE-3C00B48900A4}"/>
+    <workbookView xWindow="-45" yWindow="0" windowWidth="28770" windowHeight="15570" firstSheet="1" activeTab="11" xr2:uid="{55565E65-86A1-4E53-88BE-3C00B48900A4}"/>
   </bookViews>
   <sheets>
     <sheet name="ANSv2-692-Home" sheetId="9" r:id="rId1"/>
@@ -40,7 +40,6 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -108,7 +107,7 @@
     <author>tc={98A9E572-CE34-4E3C-8BE4-0A4C9B37DB42}</author>
     <author>tc={FEB1731D-7ABB-4192-921F-B8747FB175B1}</author>
     <author>tc={E244C082-D1E8-4736-B537-3CEDDCCA3018}</author>
-    <author>tc={49143976-E0AB-419A-B4F6-800C2596CDED}</author>
+    <author>tc={B554E534-C672-49D7-831D-B83A5C7E4C66}</author>
   </authors>
   <commentList>
     <comment ref="K4" authorId="0" shapeId="0" xr:uid="{2BA06302-F325-40AE-93BB-69DD146ABAA0}">
@@ -133,7 +132,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X11" authorId="2" shapeId="0" xr:uid="{DDF791D8-DFEA-479B-80CC-930137638027}">
+    <comment ref="Y11" authorId="2" shapeId="0" xr:uid="{DDF791D8-DFEA-479B-80CC-930137638027}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -141,7 +140,7 @@
     60kwh/ton CO2 (IEA 2019)?</t>
       </text>
     </comment>
-    <comment ref="Y12" authorId="3" shapeId="0" xr:uid="{D580312E-16B7-41B7-A7FD-9FE1C37783CC}">
+    <comment ref="Z12" authorId="3" shapeId="0" xr:uid="{D580312E-16B7-41B7-A7FD-9FE1C37783CC}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -182,7 +181,7 @@
     The output of this technology is linked to activity of CCGT-CCS plant via a user constraint.</t>
       </text>
     </comment>
-    <comment ref="K20" authorId="8" shapeId="0" xr:uid="{49143976-E0AB-419A-B4F6-800C2596CDED}">
+    <comment ref="L20" authorId="8" shapeId="0" xr:uid="{B554E534-C672-49D7-831D-B83A5C7E4C66}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -268,7 +267,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="271">
   <si>
     <t>Comment</t>
   </si>
@@ -1076,6 +1075,12 @@
   </si>
   <si>
     <t>NCAP_TLIFE</t>
+  </si>
+  <si>
+    <t>Lead time</t>
+  </si>
+  <si>
+    <t>NCAP_ILED</t>
   </si>
 </sst>
 </file>
@@ -1089,7 +1094,7 @@
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="43" x14ac:knownFonts="1">
+  <fonts count="44" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1370,6 +1375,12 @@
       <sz val="9"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1983,7 +1994,7 @@
 </file>
 
 <file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D50-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX10.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2067,7 +2078,7 @@
 </file>
 
 <file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D50-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX20.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2155,7 +2166,7 @@
 </file>
 
 <file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D50-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX40.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2199,7 +2210,7 @@
 </file>
 
 <file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D50-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX50.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9332,10 +9343,10 @@
   <threadedComment ref="K4" dT="2021-04-23T15:27:01.15" personId="{B1B3113A-9AEB-4223-A956-A0CFC873B37D}" id="{2BA06302-F325-40AE-93BB-69DD146ABAA0}">
     <text>From Parsons Brinckerhoff 2013 adjusted for 2015, energy costs may already be included - so this is a bit on the conservative side</text>
   </threadedComment>
-  <threadedComment ref="X11" dT="2021-04-23T15:05:32.63" personId="{B1B3113A-9AEB-4223-A956-A0CFC873B37D}" id="{DDF791D8-DFEA-479B-80CC-930137638027}">
+  <threadedComment ref="Y11" dT="2021-04-23T15:05:32.63" personId="{B1B3113A-9AEB-4223-A956-A0CFC873B37D}" id="{DDF791D8-DFEA-479B-80CC-930137638027}">
     <text>60kwh/ton CO2 (IEA 2019)?</text>
   </threadedComment>
-  <threadedComment ref="Y12" dT="2021-04-23T15:05:47.68" personId="{B1B3113A-9AEB-4223-A956-A0CFC873B37D}" id="{D580312E-16B7-41B7-A7FD-9FE1C37783CC}">
+  <threadedComment ref="Z12" dT="2021-04-23T15:05:47.68" personId="{B1B3113A-9AEB-4223-A956-A0CFC873B37D}" id="{D580312E-16B7-41B7-A7FD-9FE1C37783CC}">
     <text>3 GJ/ton (IEA 2019?)</text>
   </threadedComment>
   <threadedComment ref="H13" dT="2021-04-23T15:07:41.65" personId="{B1B3113A-9AEB-4223-A956-A0CFC873B37D}" id="{A20B0631-D7D0-4E92-A58C-D72A63ED73B0}">
@@ -9351,7 +9362,7 @@
   <threadedComment ref="H16" dT="2021-08-26T14:01:44.21" personId="{B1B3113A-9AEB-4223-A956-A0CFC873B37D}" id="{E244C082-D1E8-4736-B537-3CEDDCCA3018}">
     <text>The output of this technology is linked to activity of CCGT-CCS plant via a user constraint.</text>
   </threadedComment>
-  <threadedComment ref="K20" dT="2021-09-14T07:42:59.43" personId="{B1B3113A-9AEB-4223-A956-A0CFC873B37D}" id="{49143976-E0AB-419A-B4F6-800C2596CDED}">
+  <threadedComment ref="L20" dT="2021-11-16T14:29:14.73" personId="{B1B3113A-9AEB-4223-A956-A0CFC873B37D}" id="{B554E534-C672-49D7-831D-B83A5C7E4C66}">
     <text>Based on Finnish Plant - needs review</text>
   </threadedComment>
 </ThreadedComments>
@@ -9424,52 +9435,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12300" r:id="rId4" name="optMultiRegionCommon">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+        <control shapeId="12289" r:id="rId4" name="cmdUpdate">
+          <controlPr defaultSize="0" disabled="1" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:colOff>238125</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="12300" r:id="rId4" name="optMultiRegionCommon"/>
+        <control shapeId="12289" r:id="rId4" name="cmdUpdate"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12299" r:id="rId6" name="optMultiRegionNotCommon">
-          <controlPr defaultSize="0" disabled="1" autoLine="0" r:id="rId7">
+        <control shapeId="12291" r:id="rId6" name="cmdAddNewAnswerSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>57150</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>24</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>28</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="12299" r:id="rId6" name="optMultiRegionNotCommon"/>
+        <control shapeId="12291" r:id="rId6" name="cmdAddNewAnswerSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9499,52 +9510,52 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12291" r:id="rId10" name="cmdAddNewAnswerSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+        <control shapeId="12299" r:id="rId10" name="optMultiRegionNotCommon">
+          <controlPr defaultSize="0" disabled="1" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>24</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:colOff>57150</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>28</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="12291" r:id="rId10" name="cmdAddNewAnswerSheet"/>
+        <control shapeId="12299" r:id="rId10" name="optMultiRegionNotCommon"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12289" r:id="rId12" name="cmdUpdate">
-          <controlPr defaultSize="0" disabled="1" autoLine="0" r:id="rId13">
+        <control shapeId="12300" r:id="rId12" name="optMultiRegionCommon">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>238125</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="12289" r:id="rId12" name="cmdUpdate"/>
+        <control shapeId="12300" r:id="rId12" name="optMultiRegionCommon"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -9625,43 +9636,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="113672" r:id="rId4" name="cmdAddParamQualifier2">
+        <control shapeId="113665" r:id="rId4" name="cmdTechNameAndDesc">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="113672" r:id="rId4" name="cmdAddParamQualifier2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="113670" r:id="rId6" name="cmdCheckTechDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>1304925</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>209550</xdr:rowOff>
               </to>
@@ -9670,32 +9656,57 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="113670" r:id="rId6" name="cmdCheckTechDataSheet"/>
+        <control shapeId="113665" r:id="rId4" name="cmdTechNameAndDesc"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="113669" r:id="rId8" name="cmdAddParamQualifier1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+        <control shapeId="113666" r:id="rId6" name="cmdCommIN">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="113669" r:id="rId8" name="cmdAddParamQualifier1"/>
+        <control shapeId="113666" r:id="rId6" name="cmdCommIN"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="113667" r:id="rId8" name="cmdCommOUT">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>619125</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="113667" r:id="rId8" name="cmdCommOUT"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9725,18 +9736,43 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="113667" r:id="rId12" name="cmdCommOUT">
+        <control shapeId="113669" r:id="rId12" name="cmdAddParamQualifier1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="113669" r:id="rId12" name="cmdAddParamQualifier1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="113670" r:id="rId14" name="cmdCheckTechDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>619125</xdr:colOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>209550</xdr:rowOff>
               </to>
@@ -9745,57 +9781,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="113667" r:id="rId12" name="cmdCommOUT"/>
+        <control shapeId="113670" r:id="rId14" name="cmdCheckTechDataSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="113666" r:id="rId14" name="cmdCommIN">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+        <control shapeId="113672" r:id="rId16" name="cmdAddParamQualifier2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="113666" r:id="rId14" name="cmdCommIN"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="113665" r:id="rId16" name="cmdTechNameAndDesc">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>1304925</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="113665" r:id="rId16" name="cmdTechNameAndDesc"/>
+        <control shapeId="113672" r:id="rId16" name="cmdAddParamQualifier2"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -10026,18 +10037,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="167939" r:id="rId4" name="cmdCommUnit">
+        <control shapeId="167937" r:id="rId4" name="cmdSpecifySets">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>676275</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1924050</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -10046,7 +10057,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="167939" r:id="rId4" name="cmdCommUnit"/>
+        <control shapeId="167937" r:id="rId4" name="cmdSpecifySets"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10076,18 +10087,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="167937" r:id="rId8" name="cmdSpecifySets">
+        <control shapeId="167939" r:id="rId8" name="cmdCommUnit">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1924050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>676275</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -10096,7 +10107,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="167937" r:id="rId8" name="cmdSpecifySets"/>
+        <control shapeId="167939" r:id="rId8" name="cmdCommUnit"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -10108,10 +10119,10 @@
   <sheetPr codeName="Sheet30">
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:AH20"/>
+  <dimension ref="A1:AI20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10123,15 +10134,15 @@
     <col min="5" max="5" width="12.28515625" style="12" customWidth="1"/>
     <col min="6" max="6" width="10.140625" style="12" customWidth="1"/>
     <col min="7" max="7" width="6.85546875" style="45" customWidth="1"/>
-    <col min="8" max="23" width="9.140625" style="12"/>
-    <col min="24" max="24" width="7.85546875" style="12" customWidth="1"/>
-    <col min="25" max="25" width="7.5703125" style="12" customWidth="1"/>
-    <col min="26" max="27" width="7.85546875" style="12" customWidth="1"/>
-    <col min="28" max="28" width="9.7109375" style="12" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="12"/>
+    <col min="8" max="24" width="9.140625" style="12"/>
+    <col min="25" max="25" width="7.85546875" style="12" customWidth="1"/>
+    <col min="26" max="26" width="7.5703125" style="12" customWidth="1"/>
+    <col min="27" max="28" width="7.85546875" style="12" customWidth="1"/>
+    <col min="29" max="29" width="9.7109375" style="12" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="str">
         <f ca="1">IF(INDEX(Index!$E$6:$E$37,MATCH(A2,Index!$D$6:$D$37,0))=1,LEFT(A2,SEARCH("_",A2)-1),"")</f>
         <v>ProcData</v>
@@ -10141,9 +10152,6 @@
         <v>REGION1</v>
       </c>
       <c r="H1" s="51"/>
-      <c r="AC1" s="12" t="s">
-        <v>92</v>
-      </c>
       <c r="AD1" s="12" t="s">
         <v>92</v>
       </c>
@@ -10159,8 +10167,11 @@
       <c r="AH1" s="12" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="2" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI1" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f ca="1">MID(CELL("filename",A2),FIND("]",CELL("filename",A2))+1,255)</f>
         <v>ProcData_CCS</v>
@@ -10171,9 +10182,6 @@
       <c r="K2" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="X2" s="12" t="s">
-        <v>213</v>
-      </c>
       <c r="Y2" s="12" t="s">
         <v>213</v>
       </c>
@@ -10186,8 +10194,11 @@
       <c r="AB2" s="12" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="3" spans="1:34" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC2" s="12" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="22"/>
       <c r="H3" s="87" t="s">
         <v>131</v>
@@ -10208,16 +10219,16 @@
         <v>267</v>
       </c>
       <c r="N3" s="87" t="s">
-        <v>142</v>
+        <v>269</v>
       </c>
       <c r="O3" s="87" t="s">
         <v>142</v>
       </c>
-      <c r="P3" s="87"/>
+      <c r="P3" s="87" t="s">
+        <v>142</v>
+      </c>
       <c r="Q3" s="87"/>
-      <c r="R3" s="87" t="s">
-        <v>142</v>
-      </c>
+      <c r="R3" s="87"/>
       <c r="S3" s="87" t="s">
         <v>142</v>
       </c>
@@ -10228,16 +10239,19 @@
         <v>142</v>
       </c>
       <c r="V3" s="87" t="s">
+        <v>142</v>
+      </c>
+      <c r="W3" s="87" t="s">
         <v>130</v>
       </c>
-      <c r="W3" s="12" t="s">
+      <c r="X3" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="X3" s="12" t="s">
+      <c r="Y3" s="12" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="22"/>
       <c r="E4" s="46"/>
       <c r="F4" s="46"/>
@@ -10261,7 +10275,7 @@
         <v>268</v>
       </c>
       <c r="N4" s="58" t="s">
-        <v>143</v>
+        <v>270</v>
       </c>
       <c r="O4" s="58" t="s">
         <v>143</v>
@@ -10285,13 +10299,13 @@
         <v>143</v>
       </c>
       <c r="V4" s="58" t="s">
+        <v>143</v>
+      </c>
+      <c r="W4" s="58" t="s">
         <v>122</v>
       </c>
-      <c r="W4" s="26" t="s">
+      <c r="X4" s="26" t="s">
         <v>126</v>
-      </c>
-      <c r="X4" s="86" t="s">
-        <v>127</v>
       </c>
       <c r="Y4" s="86" t="s">
         <v>127</v>
@@ -10305,79 +10319,79 @@
       <c r="AB4" s="86" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="5" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC4" s="86" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="22"/>
       <c r="H5" s="58" t="s">
         <v>27</v>
       </c>
       <c r="I5" s="58"/>
       <c r="J5" s="58"/>
-      <c r="N5" s="12" t="str">
+      <c r="O5" s="12" t="str">
         <f>RES!K2</f>
         <v>CO2SCCEM</v>
       </c>
-      <c r="O5" s="12" t="str">
+      <c r="P5" s="12" t="str">
         <f>RES!J2</f>
         <v>CO2SPCEM</v>
       </c>
-      <c r="P5" s="12" t="str">
+      <c r="Q5" s="12" t="str">
         <f>RES!M2</f>
         <v>CO2SCLIM</v>
       </c>
-      <c r="Q5" s="12" t="str">
+      <c r="R5" s="12" t="str">
         <f>RES!L2</f>
         <v>CO2SPLIM</v>
       </c>
-      <c r="R5" s="94" t="str">
+      <c r="S5" s="94" t="str">
         <f>RES!N2</f>
         <v>CO2SPIFC</v>
       </c>
-      <c r="S5" s="94" t="str">
+      <c r="T5" s="94" t="str">
         <f>RES!O2</f>
         <v>CO2SPIFM</v>
       </c>
-      <c r="T5" s="94" t="str">
+      <c r="U5" s="94" t="str">
         <f>RES!G2</f>
         <v>PWRCO2S</v>
       </c>
-      <c r="U5" s="94" t="s">
+      <c r="V5" s="94" t="s">
         <v>261</v>
       </c>
-      <c r="V5" s="54"/>
-      <c r="W5" s="26" t="str">
+      <c r="W5" s="54"/>
+      <c r="X5" s="26" t="str">
         <f>F10</f>
         <v>CO2CAPT</v>
       </c>
-      <c r="X5" s="12" t="str">
+      <c r="Y5" s="12" t="str">
         <f>E11</f>
         <v>INMELC</v>
       </c>
-      <c r="Y5" s="12" t="str">
+      <c r="Z5" s="12" t="str">
         <f>E12</f>
         <v>INMCEMTHF</v>
       </c>
-      <c r="Z5" s="12" t="str">
+      <c r="AA5" s="12" t="str">
         <f>E13</f>
         <v>IFAELC</v>
       </c>
-      <c r="AA5" s="12" t="str">
+      <c r="AB5" s="12" t="str">
         <f>E15</f>
         <v>ELCC</v>
       </c>
-      <c r="AB5" s="12" t="str">
+      <c r="AC5" s="12" t="str">
         <f>E19</f>
         <v>INMLIMTHF</v>
       </c>
     </row>
-    <row r="6" spans="1:34" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="22"/>
       <c r="H6" s="58" t="s">
         <v>124</v>
       </c>
-      <c r="N6" s="12" t="s">
-        <v>124</v>
-      </c>
       <c r="O6" s="12" t="s">
         <v>124</v>
       </c>
@@ -10399,12 +10413,15 @@
       <c r="U6" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="V6" s="54"/>
-      <c r="AC6" s="12" t="s">
+      <c r="V6" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="W6" s="54"/>
+      <c r="AD6" s="12" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="7" spans="1:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="22"/>
       <c r="B7" s="11" t="s">
         <v>56</v>
@@ -10429,32 +10446,32 @@
       <c r="J7" s="49">
         <v>0</v>
       </c>
-      <c r="V7" s="55" t="s">
-        <v>44</v>
-      </c>
       <c r="W7" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="AC7" s="12" t="s">
+      <c r="X7" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="AD7" s="12" t="s">
+      <c r="AE7" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="AE7" s="123" t="s">
+      <c r="AF7" s="123" t="s">
         <v>238</v>
       </c>
-      <c r="AF7" s="123" t="s">
+      <c r="AG7" s="123" t="s">
         <v>239</v>
       </c>
-      <c r="AG7" s="12" t="s">
+      <c r="AH7" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="AH7" s="12" t="s">
+      <c r="AI7" s="12" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="8" spans="1:34" s="51" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" s="51" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="50"/>
       <c r="B8" s="50" t="str">
         <f>RES!Y9</f>
@@ -10486,22 +10503,22 @@
         <f>'Storage supply curve'!K22*1.11/1000</f>
         <v>0.24819511465603192</v>
       </c>
-      <c r="V8" s="51">
+      <c r="W8" s="51">
         <v>1</v>
       </c>
-      <c r="AC8" s="51" t="str">
+      <c r="AD8" s="51" t="str">
         <f>C8</f>
         <v>CO2 Transport - Durban Basin</v>
       </c>
-      <c r="AD8" s="126">
+      <c r="AE8" s="126">
         <f>K8*1000</f>
         <v>248.1951146560319</v>
       </c>
-      <c r="AH8" s="51" t="s">
+      <c r="AI8" s="51" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="9" spans="1:34" s="51" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" s="51" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="50"/>
       <c r="B9" s="50" t="str">
         <f>RES!AI11</f>
@@ -10540,22 +10557,23 @@
       <c r="S9" s="84"/>
       <c r="T9" s="84"/>
       <c r="U9" s="84"/>
-      <c r="V9" s="51">
+      <c r="V9" s="84"/>
+      <c r="W9" s="51">
         <v>1</v>
       </c>
-      <c r="AC9" s="51" t="str">
+      <c r="AD9" s="51" t="str">
         <f>C9</f>
         <v>CO2 Storage - Durban Basin</v>
       </c>
-      <c r="AD9" s="126">
-        <f t="shared" ref="AD9:AD15" si="0">K9*1000</f>
+      <c r="AE9" s="126">
+        <f t="shared" ref="AE9:AE15" si="0">K9*1000</f>
         <v>64.086729810568301</v>
       </c>
-      <c r="AH9" s="51" t="s">
+      <c r="AI9" s="51" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="10" spans="1:34" s="51" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" s="51" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="50"/>
       <c r="B10" s="50" t="str">
         <f>RES!R8</f>
@@ -10584,46 +10602,47 @@
       </c>
       <c r="L10" s="83"/>
       <c r="M10" s="83"/>
-      <c r="N10" s="83">
-        <v>-1</v>
-      </c>
+      <c r="N10" s="83"/>
       <c r="O10" s="83">
         <v>-1</v>
       </c>
-      <c r="P10" s="83"/>
+      <c r="P10" s="83">
+        <v>-1</v>
+      </c>
       <c r="Q10" s="83"/>
       <c r="R10" s="83"/>
       <c r="S10" s="83"/>
       <c r="T10" s="83"/>
       <c r="U10" s="83"/>
-      <c r="V10" s="51">
+      <c r="V10" s="83"/>
+      <c r="W10" s="51">
         <v>1</v>
       </c>
-      <c r="W10" s="45">
+      <c r="X10" s="45">
         <v>1</v>
       </c>
-      <c r="AC10" s="51" t="str">
+      <c r="AD10" s="51" t="str">
         <f>C10</f>
         <v>CO2SP Capture Cement</v>
       </c>
-      <c r="AD10" s="126">
+      <c r="AE10" s="126">
         <f t="shared" si="0"/>
         <v>429.86600000000004</v>
       </c>
-      <c r="AE10" s="45">
+      <c r="AF10" s="45">
         <v>60</v>
       </c>
-      <c r="AF10" s="51">
+      <c r="AG10" s="51">
         <v>3</v>
       </c>
-      <c r="AG10" s="45" t="s">
+      <c r="AH10" s="45" t="s">
         <v>227</v>
       </c>
-      <c r="AH10" s="51" t="s">
+      <c r="AI10" s="51" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="11" spans="1:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
       <c r="B11" s="50"/>
       <c r="C11" s="50"/>
@@ -10639,15 +10658,16 @@
       <c r="K11" s="85"/>
       <c r="L11" s="85"/>
       <c r="M11" s="85"/>
-      <c r="V11" s="12"/>
-      <c r="X11" s="45">
-        <f>AE10*3.6/1000000</f>
+      <c r="N11" s="85"/>
+      <c r="W11" s="12"/>
+      <c r="Y11" s="45">
+        <f>AF10*3.6/1000000</f>
         <v>2.1599999999999999E-4</v>
       </c>
-      <c r="Y11" s="12"/>
-      <c r="AD11" s="126"/>
-    </row>
-    <row r="12" spans="1:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z11" s="12"/>
+      <c r="AE11" s="126"/>
+    </row>
+    <row r="12" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12"/>
       <c r="E12" s="94" t="str">
         <f>RES!H2</f>
@@ -10668,13 +10688,14 @@
       <c r="S12" s="12"/>
       <c r="T12" s="12"/>
       <c r="U12" s="12"/>
-      <c r="Y12" s="45">
-        <f>AF10/1000</f>
+      <c r="V12" s="12"/>
+      <c r="Z12" s="45">
+        <f>AG10/1000</f>
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="AD12" s="126"/>
-    </row>
-    <row r="13" spans="1:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE12" s="126"/>
+    </row>
+    <row r="13" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
       <c r="B13" s="50" t="str">
         <f>RES!R15</f>
@@ -10711,38 +10732,39 @@
       <c r="O13" s="12"/>
       <c r="P13" s="12"/>
       <c r="Q13" s="12"/>
-      <c r="R13" s="12">
+      <c r="R13" s="12"/>
+      <c r="S13" s="12">
         <v>-1</v>
       </c>
-      <c r="S13" s="12"/>
       <c r="T13" s="12"/>
       <c r="U13" s="12"/>
-      <c r="V13" s="12">
+      <c r="V13" s="12"/>
+      <c r="W13" s="12">
         <v>1</v>
       </c>
-      <c r="W13" s="45">
+      <c r="X13" s="45">
         <v>1</v>
       </c>
-      <c r="AC13" s="51" t="str">
+      <c r="AD13" s="51" t="str">
         <f>C13</f>
         <v>CO2SP Capture FerroChrome</v>
       </c>
-      <c r="AD13" s="126">
+      <c r="AE13" s="126">
         <f t="shared" si="0"/>
         <v>339.43721830985919</v>
       </c>
-      <c r="AE13" s="125">
+      <c r="AF13" s="125">
         <f>1200/3.6</f>
         <v>333.33333333333331</v>
       </c>
-      <c r="AG13" s="124" t="s">
+      <c r="AH13" s="124" t="s">
         <v>228</v>
       </c>
-      <c r="AH13" s="51" t="s">
+      <c r="AI13" s="51" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="14" spans="1:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12"/>
       <c r="B14" s="50" t="str">
         <f>RES!R22</f>
@@ -10780,37 +10802,38 @@
       <c r="P14" s="12"/>
       <c r="Q14" s="12"/>
       <c r="R14" s="12"/>
-      <c r="S14" s="12">
+      <c r="S14" s="12"/>
+      <c r="T14" s="12">
         <v>-1</v>
       </c>
-      <c r="T14" s="12"/>
       <c r="U14" s="12"/>
-      <c r="V14" s="12">
+      <c r="V14" s="12"/>
+      <c r="W14" s="12">
         <v>1</v>
       </c>
-      <c r="W14" s="45">
+      <c r="X14" s="45">
         <v>1</v>
       </c>
-      <c r="AC14" s="51" t="str">
+      <c r="AD14" s="51" t="str">
         <f>C14</f>
         <v>CO2SP Capture FerroManganese</v>
       </c>
-      <c r="AD14" s="126">
+      <c r="AE14" s="126">
         <f t="shared" si="0"/>
         <v>339.43721830985919</v>
       </c>
-      <c r="AE14" s="125">
-        <f>AE13</f>
+      <c r="AF14" s="125">
+        <f>AF13</f>
         <v>333.33333333333331</v>
       </c>
-      <c r="AG14" s="124" t="s">
+      <c r="AH14" s="124" t="s">
         <v>228</v>
       </c>
-      <c r="AH14" s="51" t="s">
+      <c r="AI14" s="51" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="15" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="50" t="str">
         <f>RES!R29</f>
         <v>UPWRCO2SCR</v>
@@ -10845,39 +10868,42 @@
       <c r="M15" s="12">
         <v>25</v>
       </c>
-      <c r="T15" s="12">
+      <c r="N15" s="12">
         <v>-1</v>
       </c>
-      <c r="V15" s="12">
+      <c r="U15" s="12">
+        <v>-1</v>
+      </c>
+      <c r="W15" s="12">
         <v>1</v>
       </c>
-      <c r="W15" s="45">
+      <c r="X15" s="45">
         <v>1</v>
       </c>
-      <c r="X15" s="45"/>
       <c r="Y15" s="45"/>
       <c r="Z15" s="45"/>
       <c r="AA15" s="45"/>
-      <c r="AC15" s="51" t="str">
+      <c r="AB15" s="45"/>
+      <c r="AD15" s="51" t="str">
         <f>C15</f>
         <v>PWRCO2S Power Sector Capture - Retrofit</v>
       </c>
-      <c r="AD15" s="126">
+      <c r="AE15" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE15" s="125">
+      <c r="AF15" s="125">
         <f>1/H15/3.6*1000000</f>
         <v>342.80453285536584</v>
       </c>
-      <c r="AG15" s="12" t="s">
+      <c r="AH15" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="AH15" s="51" t="s">
+      <c r="AI15" s="51" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="16" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="50" t="str">
         <f>Processes_BASE!B14</f>
         <v>UPWRCO2SCD</v>
@@ -10898,17 +10924,17 @@
       <c r="H16" s="12">
         <v>1</v>
       </c>
-      <c r="V16" s="45">
-        <v>1</v>
-      </c>
       <c r="W16" s="45">
         <v>1</v>
       </c>
-      <c r="X16" s="45"/>
+      <c r="X16" s="45">
+        <v>1</v>
+      </c>
       <c r="Y16" s="45"/>
       <c r="Z16" s="45"/>
-    </row>
-    <row r="17" spans="2:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA16" s="45"/>
+    </row>
+    <row r="17" spans="2:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="12" t="str">
         <f>RES!R35</f>
         <v>UCO2SPLIM</v>
@@ -10929,35 +10955,35 @@
         <f>K10</f>
         <v>0.42986600000000003</v>
       </c>
-      <c r="P17" s="12">
+      <c r="Q17" s="12">
         <v>-1</v>
       </c>
-      <c r="Q17" s="85">
-        <f>O10</f>
+      <c r="R17" s="85">
+        <f>P10</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="2:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E18" s="12" t="str">
         <f>RES!D2</f>
         <v>INMELC</v>
       </c>
-      <c r="X18" s="12">
-        <f>X11</f>
+      <c r="Y18" s="12">
+        <f>Y11</f>
         <v>2.1599999999999999E-4</v>
       </c>
     </row>
-    <row r="19" spans="2:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E19" s="12" t="str">
         <f>RES!I2</f>
         <v>INMLIMTHF</v>
       </c>
-      <c r="AB19" s="12">
-        <f>Y12</f>
+      <c r="AC19" s="12">
+        <f>Z12</f>
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="20" spans="2:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="12" t="str">
         <f>Processes_BASE!B17</f>
         <v>UDACCO2S2</v>
@@ -10977,17 +11003,23 @@
       <c r="H20" s="12">
         <v>1</v>
       </c>
-      <c r="K20" s="12">
-        <f>600*11.703</f>
-        <v>7021.7999999999993</v>
-      </c>
-      <c r="U20" s="12">
+      <c r="L20" s="12">
+        <f>0.6*11.703/-PMT(8.2%,M20,1,0,1)</f>
+        <v>79.735951567834164</v>
+      </c>
+      <c r="M20" s="12">
+        <v>25</v>
+      </c>
+      <c r="N20" s="12">
         <v>-1</v>
       </c>
       <c r="V20" s="12">
+        <v>-1</v>
+      </c>
+      <c r="W20" s="12">
         <v>1</v>
       </c>
-      <c r="W20" s="45">
+      <c r="X20" s="45">
         <v>1</v>
       </c>
     </row>
@@ -11001,43 +11033,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="157703" r:id="rId4" name="cmdAddParamQualifier2">
+        <control shapeId="157697" r:id="rId4" name="cmdTechNameAndDesc">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="157703" r:id="rId4" name="cmdAddParamQualifier2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="157702" r:id="rId6" name="cmdCheckTechDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>847725</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>209550</xdr:rowOff>
               </to>
@@ -11046,32 +11053,57 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="157702" r:id="rId6" name="cmdCheckTechDataSheet"/>
+        <control shapeId="157697" r:id="rId4" name="cmdTechNameAndDesc"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="157701" r:id="rId8" name="cmdAddParamQualifier1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+        <control shapeId="157698" r:id="rId6" name="cmdCommIN">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>619125</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="157701" r:id="rId8" name="cmdAddParamQualifier1"/>
+        <control shapeId="157698" r:id="rId6" name="cmdCommIN"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="157699" r:id="rId8" name="cmdCommOUT">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>619125</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="157699" r:id="rId8" name="cmdCommOUT"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -11101,18 +11133,43 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="157699" r:id="rId12" name="cmdCommOUT">
+        <control shapeId="157701" r:id="rId12" name="cmdAddParamQualifier1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>5</xdr:col>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="157701" r:id="rId12" name="cmdAddParamQualifier1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="157702" r:id="rId14" name="cmdCheckTechDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>619125</xdr:colOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>209550</xdr:rowOff>
               </to>
@@ -11121,57 +11178,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="157699" r:id="rId12" name="cmdCommOUT"/>
+        <control shapeId="157702" r:id="rId14" name="cmdCheckTechDataSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="157698" r:id="rId14" name="cmdCommIN">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+        <control shapeId="157703" r:id="rId16" name="cmdAddParamQualifier2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>619125</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="157698" r:id="rId14" name="cmdCommIN"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="157697" r:id="rId16" name="cmdTechNameAndDesc">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>847725</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="157697" r:id="rId16" name="cmdTechNameAndDesc"/>
+        <control shapeId="157703" r:id="rId16" name="cmdAddParamQualifier2"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -12208,8 +12240,183 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="102409" r:id="rId4" name="cmdAddParamQualifier2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+        <control shapeId="102401" r:id="rId4" name="cmdConstrNameAndDesc">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>1085850</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102401" r:id="rId4" name="cmdConstrNameAndDesc"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102402" r:id="rId6" name="cmdProcName">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>238125</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102402" r:id="rId6" name="cmdProcName"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102403" r:id="rId8" name="cmdAddParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>819150</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102403" r:id="rId8" name="cmdAddParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102404" r:id="rId10" name="cmdCheckConstrDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>238125</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102404" r:id="rId10" name="cmdCheckConstrDataSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102405" r:id="rId12" name="cmdAddParamQualifier1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>819150</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102405" r:id="rId12" name="cmdAddParamQualifier1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102407" r:id="rId14" name="cmdCommName">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>238125</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102407" r:id="rId14" name="cmdCommName"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102408" r:id="rId16" name="cmdTimeSlice">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>238125</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102408" r:id="rId16" name="cmdTimeSlice"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102409" r:id="rId18" name="cmdAddParamQualifier2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -12228,182 +12435,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="102409" r:id="rId4" name="cmdAddParamQualifier2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102408" r:id="rId6" name="cmdTimeSlice">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>238125</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102408" r:id="rId6" name="cmdTimeSlice"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102407" r:id="rId8" name="cmdCommName">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>238125</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102407" r:id="rId8" name="cmdCommName"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102405" r:id="rId10" name="cmdAddParamQualifier1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>819150</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102405" r:id="rId10" name="cmdAddParamQualifier1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102404" r:id="rId12" name="cmdCheckConstrDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>238125</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102404" r:id="rId12" name="cmdCheckConstrDataSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102403" r:id="rId14" name="cmdAddParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>819150</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102403" r:id="rId14" name="cmdAddParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102402" r:id="rId16" name="cmdProcName">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>238125</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102402" r:id="rId16" name="cmdProcName"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102401" r:id="rId18" name="cmdConstrNameAndDesc">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>1085850</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102401" r:id="rId18" name="cmdConstrNameAndDesc"/>
+        <control shapeId="102409" r:id="rId18" name="cmdAddParamQualifier2"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -12552,8 +12584,83 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="55300" r:id="rId4" name="cmdSpecifySets">
+        <control shapeId="55297" r:id="rId4" name="cmdCheckItemsSheet">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="55297" r:id="rId4" name="cmdCheckItemsSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="55298" r:id="rId6" name="cmdSpecifyComponent">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="55298" r:id="rId6" name="cmdSpecifyComponent"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="55299" r:id="rId8" name="cmdSpecifyUnits">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="55299" r:id="rId8" name="cmdSpecifyUnits"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="55300" r:id="rId10" name="cmdSpecifySets">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
@@ -12572,82 +12679,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="55300" r:id="rId4" name="cmdSpecifySets"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="55299" r:id="rId6" name="cmdSpecifyUnits">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="55299" r:id="rId6" name="cmdSpecifyUnits"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="55298" r:id="rId8" name="cmdSpecifyComponent">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="55298" r:id="rId8" name="cmdSpecifyComponent"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="55297" r:id="rId10" name="cmdCheckItemsSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="55297" r:id="rId10" name="cmdCheckItemsSheet"/>
+        <control shapeId="55300" r:id="rId10" name="cmdSpecifySets"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -12721,8 +12753,233 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="57353" r:id="rId4" name="cmdSpecifyIEOptcode">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
+        <control shapeId="57354" r:id="rId4" name="cmdPopulateDataYears">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>819150</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57354" r:id="rId4" name="cmdPopulateDataYears"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57345" r:id="rId6" name="cmdCheckTSDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57345" r:id="rId6" name="cmdCheckTSDataSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57346" r:id="rId8" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57346" r:id="rId8" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57347" r:id="rId10" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57347" r:id="rId10" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57348" r:id="rId12" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57348" r:id="rId12" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57349" r:id="rId14" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57349" r:id="rId14" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57350" r:id="rId16" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57350" r:id="rId16" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57351" r:id="rId18" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57351" r:id="rId18" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57352" r:id="rId20" name="cmdSpecifyArg6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57352" r:id="rId20" name="cmdSpecifyArg6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57353" r:id="rId22" name="cmdSpecifyIEOptcode">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId23">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>8</xdr:col>
@@ -12741,232 +12998,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="57353" r:id="rId4" name="cmdSpecifyIEOptcode"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57352" r:id="rId6" name="cmdSpecifyArg6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57352" r:id="rId6" name="cmdSpecifyArg6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57351" r:id="rId8" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57351" r:id="rId8" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57350" r:id="rId10" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57350" r:id="rId10" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57349" r:id="rId12" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57349" r:id="rId12" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57348" r:id="rId14" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57348" r:id="rId14" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57347" r:id="rId16" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57347" r:id="rId16" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57346" r:id="rId18" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57346" r:id="rId18" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57345" r:id="rId20" name="cmdCheckTSDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57345" r:id="rId20" name="cmdCheckTSDataSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57354" r:id="rId22" name="cmdPopulateDataYears">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId23">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>819150</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57354" r:id="rId22" name="cmdPopulateDataYears"/>
+        <control shapeId="57353" r:id="rId22" name="cmdSpecifyIEOptcode"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -13030,8 +13062,183 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="58376" r:id="rId4" name="cmdSpecifyArg6">
+        <control shapeId="58369" r:id="rId4" name="cmdCheckTIDDataSheet">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>819150</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58369" r:id="rId4" name="cmdCheckTIDDataSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58370" r:id="rId6" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58370" r:id="rId6" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58371" r:id="rId8" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58371" r:id="rId8" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58372" r:id="rId10" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58372" r:id="rId10" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58373" r:id="rId12" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58373" r:id="rId12" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58374" r:id="rId14" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58374" r:id="rId14" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58375" r:id="rId16" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58375" r:id="rId16" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58376" r:id="rId18" name="cmdSpecifyArg6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
@@ -13050,182 +13257,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="58376" r:id="rId4" name="cmdSpecifyArg6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58375" r:id="rId6" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58375" r:id="rId6" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58374" r:id="rId8" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58374" r:id="rId8" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58373" r:id="rId10" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58373" r:id="rId10" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58372" r:id="rId12" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58372" r:id="rId12" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58371" r:id="rId14" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58371" r:id="rId14" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58370" r:id="rId16" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58370" r:id="rId16" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58369" r:id="rId18" name="cmdCheckTIDDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>819150</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58369" r:id="rId18" name="cmdCheckTIDDataSheet"/>
+        <control shapeId="58376" r:id="rId18" name="cmdSpecifyArg6"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -13300,8 +13332,233 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="59401" r:id="rId3" name="cmdSpecifyIEOptcode">
+        <control shapeId="59402" r:id="rId3" name="cmdPopulateDataYears">
           <controlPr defaultSize="0" autoLine="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>847725</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59402" r:id="rId3" name="cmdPopulateDataYears"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59393" r:id="rId5" name="cmdCheckTSandTIDDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>857250</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59393" r:id="rId5" name="cmdCheckTSandTIDDataSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59394" r:id="rId7" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59394" r:id="rId7" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59395" r:id="rId9" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59395" r:id="rId9" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59396" r:id="rId11" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId12">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59396" r:id="rId11" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59397" r:id="rId13" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId14">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59397" r:id="rId13" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59398" r:id="rId15" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId16">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59398" r:id="rId15" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59399" r:id="rId17" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59399" r:id="rId17" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59400" r:id="rId19" name="cmdSpecifyArg6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59400" r:id="rId19" name="cmdSpecifyArg6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59401" r:id="rId21" name="cmdSpecifyIEOptcode">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId22">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>8</xdr:col>
@@ -13320,232 +13577,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="59401" r:id="rId3" name="cmdSpecifyIEOptcode"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59400" r:id="rId5" name="cmdSpecifyArg6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59400" r:id="rId5" name="cmdSpecifyArg6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59399" r:id="rId7" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59399" r:id="rId7" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59398" r:id="rId9" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59398" r:id="rId9" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59397" r:id="rId11" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId12">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59397" r:id="rId11" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59396" r:id="rId13" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId14">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59396" r:id="rId13" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59395" r:id="rId15" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId16">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59395" r:id="rId15" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59394" r:id="rId17" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59394" r:id="rId17" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59393" r:id="rId19" name="cmdCheckTSandTIDDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>857250</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59393" r:id="rId19" name="cmdCheckTSandTIDDataSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59402" r:id="rId21" name="cmdPopulateDataYears">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId22">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>847725</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59402" r:id="rId21" name="cmdPopulateDataYears"/>
+        <control shapeId="59401" r:id="rId21" name="cmdSpecifyIEOptcode"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -13784,8 +13816,233 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="60426" r:id="rId3" name="cmdCheckTSTradeSheet">
+        <control shapeId="60427" r:id="rId3" name="cmdPopulateDataYears">
           <controlPr defaultSize="0" autoLine="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>838200</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60427" r:id="rId3" name="cmdPopulateDataYears"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60418" r:id="rId5" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60418" r:id="rId5" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60419" r:id="rId7" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60419" r:id="rId7" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60420" r:id="rId9" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60420" r:id="rId9" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60421" r:id="rId11" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId12">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60421" r:id="rId11" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60422" r:id="rId13" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId14">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60422" r:id="rId13" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60423" r:id="rId15" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId16">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60423" r:id="rId15" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60424" r:id="rId17" name="cmdSpecifyArg6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60424" r:id="rId17" name="cmdSpecifyArg6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60425" r:id="rId19" name="cmdSpecifyIEOptcode">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60425" r:id="rId19" name="cmdSpecifyIEOptcode"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60426" r:id="rId21" name="cmdCheckTSTradeSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId22">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -13804,232 +14061,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="60426" r:id="rId3" name="cmdCheckTSTradeSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60425" r:id="rId5" name="cmdSpecifyIEOptcode">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60425" r:id="rId5" name="cmdSpecifyIEOptcode"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60424" r:id="rId7" name="cmdSpecifyArg6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60424" r:id="rId7" name="cmdSpecifyArg6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60423" r:id="rId9" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60423" r:id="rId9" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60422" r:id="rId11" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId12">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60422" r:id="rId11" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60421" r:id="rId13" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId14">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60421" r:id="rId13" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60420" r:id="rId15" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId16">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60420" r:id="rId15" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60419" r:id="rId17" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60419" r:id="rId17" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60418" r:id="rId19" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60418" r:id="rId19" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60427" r:id="rId21" name="cmdPopulateDataYears">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId22">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>838200</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60427" r:id="rId21" name="cmdPopulateDataYears"/>
+        <control shapeId="60426" r:id="rId21" name="cmdCheckTSTradeSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -14106,8 +14138,183 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="61449" r:id="rId4" name="cmdSpecifyArg6">
+        <control shapeId="61442" r:id="rId4" name="cmdCheckTIDTradeSheet">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61442" r:id="rId4" name="cmdCheckTIDTradeSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61443" r:id="rId6" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61443" r:id="rId6" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61444" r:id="rId8" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61444" r:id="rId8" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61445" r:id="rId10" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61445" r:id="rId10" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61446" r:id="rId12" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61446" r:id="rId12" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61447" r:id="rId14" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61447" r:id="rId14" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61448" r:id="rId16" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61448" r:id="rId16" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61449" r:id="rId18" name="cmdSpecifyArg6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>8</xdr:col>
@@ -14126,182 +14333,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="61449" r:id="rId4" name="cmdSpecifyArg6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61448" r:id="rId6" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61448" r:id="rId6" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61447" r:id="rId8" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61447" r:id="rId8" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61446" r:id="rId10" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61446" r:id="rId10" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61445" r:id="rId12" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61445" r:id="rId12" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61444" r:id="rId14" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61444" r:id="rId14" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61443" r:id="rId16" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61443" r:id="rId16" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61442" r:id="rId18" name="cmdCheckTIDTradeSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61442" r:id="rId18" name="cmdCheckTIDTradeSheet"/>
+        <control shapeId="61449" r:id="rId18" name="cmdSpecifyArg6"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -14387,8 +14419,233 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="62474" r:id="rId4" name="cmdSpecifyIEOptcode">
+        <control shapeId="62475" r:id="rId4" name="cmdPopulateDataYears">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>666750</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62475" r:id="rId4" name="cmdPopulateDataYears"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62466" r:id="rId6" name="cmdCheckTSandTIDTradeSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62466" r:id="rId6" name="cmdCheckTSandTIDTradeSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62467" r:id="rId8" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62467" r:id="rId8" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62468" r:id="rId10" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62468" r:id="rId10" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62469" r:id="rId12" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62469" r:id="rId12" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62470" r:id="rId14" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62470" r:id="rId14" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62471" r:id="rId16" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62471" r:id="rId16" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62472" r:id="rId18" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62472" r:id="rId18" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62473" r:id="rId20" name="cmdSpecifyArg6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62473" r:id="rId20" name="cmdSpecifyArg6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62474" r:id="rId22" name="cmdSpecifyIEOptcode">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId23">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>9</xdr:col>
@@ -14407,232 +14664,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="62474" r:id="rId4" name="cmdSpecifyIEOptcode"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62473" r:id="rId6" name="cmdSpecifyArg6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62473" r:id="rId6" name="cmdSpecifyArg6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62472" r:id="rId8" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62472" r:id="rId8" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62471" r:id="rId10" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62471" r:id="rId10" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62470" r:id="rId12" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62470" r:id="rId12" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62469" r:id="rId14" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62469" r:id="rId14" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62468" r:id="rId16" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62468" r:id="rId16" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62467" r:id="rId18" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62467" r:id="rId18" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62466" r:id="rId20" name="cmdCheckTSandTIDTradeSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62466" r:id="rId20" name="cmdCheckTSandTIDTradeSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62475" r:id="rId22" name="cmdPopulateDataYears">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId23">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>666750</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62475" r:id="rId22" name="cmdPopulateDataYears"/>
+        <control shapeId="62474" r:id="rId22" name="cmdSpecifyIEOptcode"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -18362,8 +18394,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="63490" r:id="rId4" name="cmdSpecifySets">
+        <control shapeId="63489" r:id="rId4" name="cmdCheckRegionsSheet">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="63489" r:id="rId4" name="cmdCheckRegionsSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="63490" r:id="rId6" name="cmdSpecifySets">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -18382,32 +18439,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="63490" r:id="rId4" name="cmdSpecifySets"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="63489" r:id="rId6" name="cmdCheckRegionsSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="63489" r:id="rId6" name="cmdCheckRegionsSheet"/>
+        <control shapeId="63490" r:id="rId6" name="cmdSpecifySets"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -18468,18 +18500,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="71683" r:id="rId4" name="cmdCommUnit">
+        <control shapeId="71681" r:id="rId4" name="cmdSpecifySets">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>676275</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1924050</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -18488,7 +18520,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="71683" r:id="rId4" name="cmdCommUnit"/>
+        <control shapeId="71681" r:id="rId4" name="cmdSpecifySets"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -18518,18 +18550,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="71681" r:id="rId8" name="cmdSpecifySets">
+        <control shapeId="71683" r:id="rId8" name="cmdCommUnit">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1924050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>676275</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -18538,7 +18570,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="71681" r:id="rId8" name="cmdSpecifySets"/>
+        <control shapeId="71683" r:id="rId8" name="cmdCommUnit"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -18752,18 +18784,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="125953" r:id="rId4" name="cmdSpecifySets">
+        <control shapeId="125955" r:id="rId4" name="cmdCommUnit">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1924050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>676275</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -18772,7 +18804,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="125953" r:id="rId4" name="cmdSpecifySets"/>
+        <control shapeId="125955" r:id="rId4" name="cmdCommUnit"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -18802,18 +18834,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="125955" r:id="rId8" name="cmdCommUnit">
+        <control shapeId="125953" r:id="rId8" name="cmdSpecifySets">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>676275</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1924050</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -18822,7 +18854,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="125955" r:id="rId8" name="cmdCommUnit"/>
+        <control shapeId="125953" r:id="rId8" name="cmdSpecifySets"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -18895,18 +18927,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="80897" r:id="rId4" name="cmdSpecifySets">
+        <control shapeId="80899" r:id="rId4" name="cmdProcUnits">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1924050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -18915,7 +18947,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="80897" r:id="rId4" name="cmdSpecifySets"/>
+        <control shapeId="80899" r:id="rId4" name="cmdProcUnits"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -18945,18 +18977,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="80899" r:id="rId8" name="cmdProcUnits">
+        <control shapeId="80897" r:id="rId8" name="cmdSpecifySets">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1924050</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -18965,7 +18997,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="80899" r:id="rId8" name="cmdProcUnits"/>
+        <control shapeId="80897" r:id="rId8" name="cmdSpecifySets"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -19041,18 +19073,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="101379" r:id="rId4" name="cmdConstraintUnit">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+        <control shapeId="101377" r:id="rId4" name="cmdConstraintSets">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
+                <xdr:col>4</xdr:col>
                 <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
@@ -19061,7 +19093,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="101379" r:id="rId4" name="cmdConstraintUnit"/>
+        <control shapeId="101377" r:id="rId4" name="cmdConstraintSets"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -19091,18 +19123,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="101377" r:id="rId8" name="cmdConstraintSets">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId9">
+        <control shapeId="101379" r:id="rId8" name="cmdConstraintUnit">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
+                <xdr:col>3</xdr:col>
                 <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
@@ -19111,7 +19143,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="101377" r:id="rId8" name="cmdConstraintSets"/>
+        <control shapeId="101379" r:id="rId8" name="cmdConstraintUnit"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -19168,19 +19200,44 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="90118" r:id="rId4" name="cmdAddParamQualifier2">
+        <control shapeId="90116" r:id="rId4" name="cmdCheckCommDataSheet">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="90116" r:id="rId4" name="cmdCheckCommDataSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="90115" r:id="rId6" name="cmdAddParamQualifier1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>6</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
@@ -19188,32 +19245,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="90118" r:id="rId4" name="cmdAddParamQualifier2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="90113" r:id="rId6" name="cmdAddParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="90113" r:id="rId6" name="cmdAddParameter"/>
+        <control shapeId="90115" r:id="rId6" name="cmdAddParamQualifier1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -19243,19 +19275,44 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="90115" r:id="rId10" name="cmdAddParamQualifier1">
+        <control shapeId="90113" r:id="rId10" name="cmdAddParameter">
           <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
                 <xdr:row>4</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="90113" r:id="rId10" name="cmdAddParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="90118" r:id="rId12" name="cmdAddParamQualifier2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:row>6</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
@@ -19263,32 +19320,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="90115" r:id="rId10" name="cmdAddParamQualifier1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="90116" r:id="rId12" name="cmdCheckCommDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="90116" r:id="rId12" name="cmdCheckCommDataSheet"/>
+        <control shapeId="90118" r:id="rId12" name="cmdAddParamQualifier2"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/SATIM/DataSpreadsheets/TCH_CCS.xlsx
+++ b/SATIM/DataSpreadsheets/TCH_CCS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE\SATIM\DataSpreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A04C90-3D33-4918-9E46-96837EC5D8D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4589B2-F222-4D74-A6A0-BD05109343BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-45" yWindow="0" windowWidth="28770" windowHeight="15570" firstSheet="1" activeTab="11" xr2:uid="{55565E65-86A1-4E53-88BE-3C00B48900A4}"/>
+    <workbookView xWindow="3195" yWindow="1275" windowWidth="25605" windowHeight="14325" firstSheet="1" activeTab="10" xr2:uid="{55565E65-86A1-4E53-88BE-3C00B48900A4}"/>
   </bookViews>
   <sheets>
     <sheet name="ANSv2-692-Home" sheetId="9" r:id="rId1"/>
@@ -106,6 +106,8 @@
     <author>tc={A20B0631-D7D0-4E92-A58C-D72A63ED73B0}</author>
     <author>tc={98A9E572-CE34-4E3C-8BE4-0A4C9B37DB42}</author>
     <author>tc={FEB1731D-7ABB-4192-921F-B8747FB175B1}</author>
+    <author>tc={EF4A3610-CE78-4A49-9CBA-18E6499675C5}</author>
+    <author>tc={0C151E9A-E8B2-44FA-8862-247B9C7CF691}</author>
     <author>tc={E244C082-D1E8-4736-B537-3CEDDCCA3018}</author>
     <author>tc={B554E534-C672-49D7-831D-B83A5C7E4C66}</author>
   </authors>
@@ -173,7 +175,23 @@
     It's actually heat + elc input, which has been lumped together here in elc, if split would be of similar magnitude to cement.</t>
       </text>
     </comment>
-    <comment ref="H16" authorId="7" shapeId="0" xr:uid="{E244C082-D1E8-4736-B537-3CEDDCCA3018}">
+    <comment ref="L15" authorId="7" shapeId="0" xr:uid="{EF4A3610-CE78-4A49-9CBA-18E6499675C5}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Cost made higher due to extra distance for transport of CO2</t>
+      </text>
+    </comment>
+    <comment ref="H16" authorId="8" shapeId="0" xr:uid="{0C151E9A-E8B2-44FA-8862-247B9C7CF691}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    It's actually heat + elc input, which has been lumped together here in elc, if split would be of similar magnitude to cement.</t>
+      </text>
+    </comment>
+    <comment ref="H17" authorId="9" shapeId="0" xr:uid="{E244C082-D1E8-4736-B537-3CEDDCCA3018}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -181,7 +199,7 @@
     The output of this technology is linked to activity of CCGT-CCS plant via a user constraint.</t>
       </text>
     </comment>
-    <comment ref="L20" authorId="8" shapeId="0" xr:uid="{B554E534-C672-49D7-831D-B83A5C7E4C66}">
+    <comment ref="L21" authorId="10" shapeId="0" xr:uid="{B554E534-C672-49D7-831D-B83A5C7E4C66}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -267,7 +285,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="273">
   <si>
     <t>Comment</t>
   </si>
@@ -1011,9 +1029,6 @@
     <t>kton/PJ</t>
   </si>
   <si>
-    <t>UPWRCO2SCR</t>
-  </si>
-  <si>
     <t>UPWRCO2SCD</t>
   </si>
   <si>
@@ -1044,9 +1059,6 @@
     <t>Process Emissions Lime South Africa</t>
   </si>
   <si>
-    <t>PWRCO2S Power Sector Capture - Retrofit</t>
-  </si>
-  <si>
     <t>PJ,PJa</t>
   </si>
   <si>
@@ -1081,6 +1093,18 @@
   </si>
   <si>
     <t>NCAP_ILED</t>
+  </si>
+  <si>
+    <t>PWRCO2S Power Sector Capture - Retrofit Coal</t>
+  </si>
+  <si>
+    <t>PWRCO2S Power Sector Capture - Retrofit Gas</t>
+  </si>
+  <si>
+    <t>UPWRCO2SCRC</t>
+  </si>
+  <si>
+    <t>UPWRCO2SCRG</t>
   </si>
 </sst>
 </file>
@@ -1380,7 +1404,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1610,7 +1634,7 @@
     <xf numFmtId="9" fontId="38" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="41" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1851,11 +1875,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="21">
@@ -1994,7 +2018,7 @@
 </file>
 
 <file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D50-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX10.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2078,7 +2102,7 @@
 </file>
 
 <file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D50-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX20.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2166,7 +2190,7 @@
 </file>
 
 <file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D50-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX40.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2210,7 +2234,7 @@
 </file>
 
 <file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D50-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX50.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9359,10 +9383,16 @@
   <threadedComment ref="H15" dT="2021-05-07T13:54:38.44" personId="{B1B3113A-9AEB-4223-A956-A0CFC873B37D}" id="{FEB1731D-7ABB-4192-921F-B8747FB175B1}">
     <text>It's actually heat + elc input, which has been lumped together here in elc, if split would be of similar magnitude to cement.</text>
   </threadedComment>
-  <threadedComment ref="H16" dT="2021-08-26T14:01:44.21" personId="{B1B3113A-9AEB-4223-A956-A0CFC873B37D}" id="{E244C082-D1E8-4736-B537-3CEDDCCA3018}">
+  <threadedComment ref="L15" dT="2022-06-07T12:58:35.08" personId="{B1B3113A-9AEB-4223-A956-A0CFC873B37D}" id="{EF4A3610-CE78-4A49-9CBA-18E6499675C5}">
+    <text>Cost made higher due to extra distance for transport of CO2</text>
+  </threadedComment>
+  <threadedComment ref="H16" dT="2021-05-07T13:54:38.44" personId="{B1B3113A-9AEB-4223-A956-A0CFC873B37D}" id="{0C151E9A-E8B2-44FA-8862-247B9C7CF691}">
+    <text>It's actually heat + elc input, which has been lumped together here in elc, if split would be of similar magnitude to cement.</text>
+  </threadedComment>
+  <threadedComment ref="H17" dT="2021-08-26T14:01:44.21" personId="{B1B3113A-9AEB-4223-A956-A0CFC873B37D}" id="{E244C082-D1E8-4736-B537-3CEDDCCA3018}">
     <text>The output of this technology is linked to activity of CCGT-CCS plant via a user constraint.</text>
   </threadedComment>
-  <threadedComment ref="L20" dT="2021-11-16T14:29:14.73" personId="{B1B3113A-9AEB-4223-A956-A0CFC873B37D}" id="{B554E534-C672-49D7-831D-B83A5C7E4C66}">
+  <threadedComment ref="L21" dT="2021-11-16T14:29:14.73" personId="{B1B3113A-9AEB-4223-A956-A0CFC873B37D}" id="{B554E534-C672-49D7-831D-B83A5C7E4C66}">
     <text>Based on Finnish Plant - needs review</text>
   </threadedComment>
 </ThreadedComments>
@@ -9435,52 +9465,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12289" r:id="rId4" name="cmdUpdate">
-          <controlPr defaultSize="0" disabled="1" autoLine="0" r:id="rId5">
+        <control shapeId="12300" r:id="rId4" name="optMultiRegionCommon">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>238125</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="12289" r:id="rId4" name="cmdUpdate"/>
+        <control shapeId="12300" r:id="rId4" name="optMultiRegionCommon"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12291" r:id="rId6" name="cmdAddNewAnswerSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+        <control shapeId="12299" r:id="rId6" name="optMultiRegionNotCommon">
+          <controlPr defaultSize="0" disabled="1" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>24</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:colOff>57150</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>28</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="12291" r:id="rId6" name="cmdAddNewAnswerSheet"/>
+        <control shapeId="12299" r:id="rId6" name="optMultiRegionNotCommon"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9510,52 +9540,52 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12299" r:id="rId10" name="optMultiRegionNotCommon">
-          <controlPr defaultSize="0" disabled="1" autoLine="0" r:id="rId11">
+        <control shapeId="12291" r:id="rId10" name="cmdAddNewAnswerSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>57150</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>24</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>28</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="12299" r:id="rId10" name="optMultiRegionNotCommon"/>
+        <control shapeId="12291" r:id="rId10" name="cmdAddNewAnswerSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12300" r:id="rId12" name="optMultiRegionCommon">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+        <control shapeId="12289" r:id="rId12" name="cmdUpdate">
+          <controlPr defaultSize="0" disabled="1" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:colOff>238125</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="12300" r:id="rId12" name="optMultiRegionCommon"/>
+        <control shapeId="12289" r:id="rId12" name="cmdUpdate"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -9636,18 +9666,43 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="113665" r:id="rId4" name="cmdTechNameAndDesc">
+        <control shapeId="113672" r:id="rId4" name="cmdAddParamQualifier2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="113672" r:id="rId4" name="cmdAddParamQualifier2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="113670" r:id="rId6" name="cmdCheckTechDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>1304925</xdr:colOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>209550</xdr:rowOff>
               </to>
@@ -9656,57 +9711,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="113665" r:id="rId4" name="cmdTechNameAndDesc"/>
+        <control shapeId="113670" r:id="rId6" name="cmdCheckTechDataSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="113666" r:id="rId6" name="cmdCommIN">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+        <control shapeId="113669" r:id="rId8" name="cmdAddParamQualifier1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="113666" r:id="rId6" name="cmdCommIN"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="113667" r:id="rId8" name="cmdCommOUT">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>619125</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="113667" r:id="rId8" name="cmdCommOUT"/>
+        <control shapeId="113669" r:id="rId8" name="cmdAddParamQualifier1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9736,43 +9766,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="113669" r:id="rId12" name="cmdAddParamQualifier1">
+        <control shapeId="113667" r:id="rId12" name="cmdCommOUT">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="113669" r:id="rId12" name="cmdAddParamQualifier1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="113670" r:id="rId14" name="cmdCheckTechDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>619125</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>209550</xdr:rowOff>
               </to>
@@ -9781,32 +9786,57 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="113670" r:id="rId14" name="cmdCheckTechDataSheet"/>
+        <control shapeId="113667" r:id="rId12" name="cmdCommOUT"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="113672" r:id="rId16" name="cmdAddParamQualifier2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+        <control shapeId="113666" r:id="rId14" name="cmdCommIN">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="113672" r:id="rId16" name="cmdAddParamQualifier2"/>
+        <control shapeId="113666" r:id="rId14" name="cmdCommIN"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="113665" r:id="rId16" name="cmdTechNameAndDesc">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>1304925</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="113665" r:id="rId16" name="cmdTechNameAndDesc"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -9818,10 +9848,10 @@
   <sheetPr codeName="Sheet17">
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -9891,7 +9921,7 @@
         <v>CO2SP Capture Cement</v>
       </c>
       <c r="D9" s="116" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E9" s="117" t="s">
         <v>203</v>
@@ -9908,7 +9938,7 @@
         <v>CO2SP Capture FerroChrome</v>
       </c>
       <c r="D10" s="116" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E10" s="117" t="s">
         <v>203</v>
@@ -9925,7 +9955,7 @@
         <v>CO2SP Capture FerroManganese</v>
       </c>
       <c r="D11" s="116" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E11" s="117" t="s">
         <v>203</v>
@@ -9934,15 +9964,15 @@
     <row r="12" spans="1:6" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="48"/>
       <c r="B12" s="48" t="str">
-        <f>RES!R29</f>
-        <v>UPWRCO2SCR</v>
+        <f>RES!R28</f>
+        <v>UPWRCO2SCRC</v>
       </c>
       <c r="C12" s="48" t="str">
-        <f>RES!R26</f>
-        <v>PWRCO2S Power Sector Capture - Retrofit</v>
+        <f>RES!R25</f>
+        <v>PWRCO2S Power Sector Capture - Retrofit Coal</v>
       </c>
       <c r="D12" s="116" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E12" s="117" t="s">
         <v>203</v>
@@ -9951,15 +9981,15 @@
     <row r="13" spans="1:6" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="48"/>
       <c r="B13" s="48" t="str">
-        <f>RES!R35</f>
-        <v>UCO2SPLIM</v>
+        <f>RES!R34</f>
+        <v>UPWRCO2SCRG</v>
       </c>
       <c r="C13" s="48" t="str">
-        <f>RES!R32</f>
-        <v>CO2SP Capture Lime</v>
+        <f>RES!R31</f>
+        <v>PWRCO2S Power Sector Capture - Retrofit Gas</v>
       </c>
       <c r="D13" s="116" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E13" s="117" t="s">
         <v>203</v>
@@ -9967,14 +9997,16 @@
     </row>
     <row r="14" spans="1:6" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="48"/>
-      <c r="B14" s="48" t="s">
-        <v>248</v>
-      </c>
-      <c r="C14" s="48" t="s">
-        <v>241</v>
+      <c r="B14" s="48" t="str">
+        <f>RES!R40</f>
+        <v>UCO2SPLIM</v>
+      </c>
+      <c r="C14" s="48" t="str">
+        <f>RES!R37</f>
+        <v>CO2SP Capture Lime</v>
       </c>
       <c r="D14" s="116" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E14" s="117" t="s">
         <v>203</v>
@@ -9982,16 +10014,14 @@
     </row>
     <row r="15" spans="1:6" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="48"/>
-      <c r="B15" s="48" t="str">
-        <f>RES!Y9</f>
-        <v>XCO2Transport</v>
-      </c>
-      <c r="C15" s="48" t="str">
-        <f>RES!Y8</f>
-        <v>CO2 Transport - Durban Basin</v>
+      <c r="B15" s="48" t="s">
+        <v>247</v>
+      </c>
+      <c r="C15" s="48" t="s">
+        <v>241</v>
       </c>
       <c r="D15" s="116" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E15" s="117" t="s">
         <v>203</v>
@@ -10000,31 +10030,48 @@
     <row r="16" spans="1:6" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="48"/>
       <c r="B16" s="48" t="str">
+        <f>RES!Y9</f>
+        <v>XCO2Transport</v>
+      </c>
+      <c r="C16" s="48" t="str">
+        <f>RES!Y8</f>
+        <v>CO2 Transport - Durban Basin</v>
+      </c>
+      <c r="D16" s="116" t="s">
+        <v>257</v>
+      </c>
+      <c r="E16" s="117" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="48"/>
+      <c r="B17" s="48" t="str">
         <f>RES!AI11</f>
         <v>UCO2STOR</v>
       </c>
-      <c r="C16" s="48" t="str">
+      <c r="C17" s="48" t="str">
         <f>RES!AI10</f>
         <v>CO2 Storage - Durban Basin</v>
       </c>
-      <c r="D16" s="116" t="s">
-        <v>259</v>
-      </c>
-      <c r="E16" s="117" t="s">
+      <c r="D17" s="116" t="s">
+        <v>257</v>
+      </c>
+      <c r="E17" s="117" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="17" spans="2:5" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B17" s="18" t="s">
+    <row r="18" spans="1:5" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B18" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="C18" s="18" t="s">
         <v>260</v>
       </c>
-      <c r="C17" s="18" t="s">
-        <v>262</v>
-      </c>
-      <c r="D17" s="116" t="s">
-        <v>259</v>
-      </c>
-      <c r="E17" s="117" t="s">
+      <c r="D18" s="116" t="s">
+        <v>257</v>
+      </c>
+      <c r="E18" s="117" t="s">
         <v>203</v>
       </c>
     </row>
@@ -10037,18 +10084,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="167937" r:id="rId4" name="cmdSpecifySets">
+        <control shapeId="167939" r:id="rId4" name="cmdCommUnit">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1924050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>676275</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -10057,7 +10104,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="167937" r:id="rId4" name="cmdSpecifySets"/>
+        <control shapeId="167939" r:id="rId4" name="cmdCommUnit"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10087,18 +10134,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="167939" r:id="rId8" name="cmdCommUnit">
+        <control shapeId="167937" r:id="rId8" name="cmdSpecifySets">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>676275</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1924050</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -10107,7 +10154,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="167939" r:id="rId8" name="cmdCommUnit"/>
+        <control shapeId="167937" r:id="rId8" name="cmdSpecifySets"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -10119,10 +10166,10 @@
   <sheetPr codeName="Sheet30">
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:AI20"/>
+  <dimension ref="A1:AI21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10216,10 +10263,10 @@
         <v>140</v>
       </c>
       <c r="M3" s="87" t="s">
+        <v>265</v>
+      </c>
+      <c r="N3" s="87" t="s">
         <v>267</v>
-      </c>
-      <c r="N3" s="87" t="s">
-        <v>269</v>
       </c>
       <c r="O3" s="87" t="s">
         <v>142</v>
@@ -10272,10 +10319,10 @@
         <v>141</v>
       </c>
       <c r="M4" s="58" t="s">
+        <v>266</v>
+      </c>
+      <c r="N4" s="58" t="s">
         <v>268</v>
-      </c>
-      <c r="N4" s="58" t="s">
-        <v>270</v>
       </c>
       <c r="O4" s="58" t="s">
         <v>143</v>
@@ -10359,7 +10406,7 @@
         <v>PWRCO2S</v>
       </c>
       <c r="V5" s="94" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="W5" s="54"/>
       <c r="X5" s="26" t="str">
@@ -10383,7 +10430,7 @@
         <v>ELCC</v>
       </c>
       <c r="AC5" s="12" t="str">
-        <f>E19</f>
+        <f>E20</f>
         <v>INMLIMTHF</v>
       </c>
     </row>
@@ -10775,7 +10822,7 @@
         <v>CO2SP Capture FerroManganese</v>
       </c>
       <c r="D14" s="50" t="str">
-        <f>Processes_BASE!D15</f>
+        <f>Processes_BASE!D16</f>
         <v>PJ,PJa</v>
       </c>
       <c r="E14" s="94" t="str">
@@ -10835,12 +10882,12 @@
     </row>
     <row r="15" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="50" t="str">
-        <f>RES!R29</f>
-        <v>UPWRCO2SCR</v>
+        <f>RES!R28</f>
+        <v>UPWRCO2SCRC</v>
       </c>
       <c r="C15" s="50" t="str">
-        <f>RES!R26</f>
-        <v>PWRCO2S Power Sector Capture - Retrofit</v>
+        <f>RES!R25</f>
+        <v>PWRCO2S Power Sector Capture - Retrofit Coal</v>
       </c>
       <c r="D15" s="50" t="str">
         <f>Processes_BASE!D12</f>
@@ -10862,8 +10909,8 @@
       <c r="J15" s="45"/>
       <c r="K15" s="121"/>
       <c r="L15" s="12">
-        <f>'Storage supply curve'!G22*1.11/1000/-PMT(8.2%,M15,1,0,1)</f>
-        <v>4.9463148606069112</v>
+        <f>L16*3</f>
+        <v>14.838944581820734</v>
       </c>
       <c r="M15" s="12">
         <v>25</v>
@@ -10886,7 +10933,7 @@
       <c r="AB15" s="45"/>
       <c r="AD15" s="51" t="str">
         <f>C15</f>
-        <v>PWRCO2S Power Sector Capture - Retrofit</v>
+        <v>PWRCO2S Power Sector Capture - Retrofit Coal</v>
       </c>
       <c r="AE15" s="126">
         <f t="shared" si="0"/>
@@ -10905,26 +10952,46 @@
     </row>
     <row r="16" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="50" t="str">
-        <f>Processes_BASE!B14</f>
-        <v>UPWRCO2SCD</v>
+        <f>RES!R34</f>
+        <v>UPWRCO2SCRG</v>
       </c>
       <c r="C16" s="50" t="str">
-        <f>Processes_BASE!C14</f>
-        <v>PWRCO2S Power Sector Capture - Gas with CCS dummy</v>
+        <f>RES!R31</f>
+        <v>PWRCO2S Power Sector Capture - Retrofit Gas</v>
       </c>
       <c r="D16" s="50" t="str">
-        <f>Processes_BASE!D14</f>
+        <f>Processes_BASE!D13</f>
         <v>PJ,PJa</v>
       </c>
-      <c r="E16" s="94"/>
+      <c r="E16" s="94" t="str">
+        <f>E15</f>
+        <v>ELCC</v>
+      </c>
       <c r="F16" s="94" t="str">
         <f>F15</f>
         <v>CO2CAPT</v>
       </c>
-      <c r="H16" s="12">
-        <v>1</v>
-      </c>
-      <c r="W16" s="45">
+      <c r="H16" s="45">
+        <f>H15</f>
+        <v>810.30952380952385</v>
+      </c>
+      <c r="I16" s="95"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="121"/>
+      <c r="L16" s="12">
+        <f>'Storage supply curve'!G22*1.11/1000/-PMT(8.2%,M15,1,0,1)</f>
+        <v>4.9463148606069112</v>
+      </c>
+      <c r="M16" s="12">
+        <v>25</v>
+      </c>
+      <c r="N16" s="12">
+        <v>-1</v>
+      </c>
+      <c r="U16" s="12">
+        <v>-1</v>
+      </c>
+      <c r="W16" s="12">
         <v>1</v>
       </c>
       <c r="X16" s="45">
@@ -10933,93 +11000,143 @@
       <c r="Y16" s="45"/>
       <c r="Z16" s="45"/>
       <c r="AA16" s="45"/>
+      <c r="AB16" s="45"/>
+      <c r="AD16" s="51" t="str">
+        <f>C16</f>
+        <v>PWRCO2S Power Sector Capture - Retrofit Gas</v>
+      </c>
+      <c r="AE16" s="126">
+        <f t="shared" ref="AE16" si="1">K16*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AF16" s="125">
+        <f>1/H16/3.6*1000000</f>
+        <v>342.80453285536584</v>
+      </c>
+      <c r="AH16" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="AI16" s="51" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="17" spans="2:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="12" t="str">
-        <f>RES!R35</f>
+      <c r="B17" s="50" t="str">
+        <f>Processes_BASE!B15</f>
+        <v>UPWRCO2SCD</v>
+      </c>
+      <c r="C17" s="50" t="str">
+        <f>Processes_BASE!C15</f>
+        <v>PWRCO2S Power Sector Capture - Gas with CCS dummy</v>
+      </c>
+      <c r="D17" s="50" t="str">
+        <f>Processes_BASE!D15</f>
+        <v>PJ,PJa</v>
+      </c>
+      <c r="E17" s="94"/>
+      <c r="F17" s="94" t="str">
+        <f>F15</f>
+        <v>CO2CAPT</v>
+      </c>
+      <c r="H17" s="12">
+        <v>1</v>
+      </c>
+      <c r="W17" s="45">
+        <v>1</v>
+      </c>
+      <c r="X17" s="45">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="45"/>
+      <c r="Z17" s="45"/>
+      <c r="AA17" s="45"/>
+    </row>
+    <row r="18" spans="2:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="12" t="str">
+        <f>RES!R40</f>
         <v>UCO2SPLIM</v>
       </c>
-      <c r="C17" s="12" t="str">
-        <f>RES!R32</f>
+      <c r="C18" s="12" t="str">
+        <f>RES!R37</f>
         <v>CO2SP Capture Lime</v>
       </c>
-      <c r="D17" s="12" t="str">
-        <f>Processes_BASE!D13</f>
+      <c r="D18" s="12" t="str">
+        <f>Processes_BASE!D14</f>
         <v>PJ,PJa</v>
       </c>
-      <c r="F17" s="12" t="str">
+      <c r="F18" s="12" t="str">
         <f>RES!T2</f>
         <v>CO2CAPT</v>
       </c>
-      <c r="K17" s="89">
+      <c r="K18" s="89">
         <f>K10</f>
         <v>0.42986600000000003</v>
       </c>
-      <c r="Q17" s="12">
+      <c r="Q18" s="12">
         <v>-1</v>
       </c>
-      <c r="R17" s="85">
+      <c r="R18" s="85">
         <f>P10</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="2:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E18" s="12" t="str">
+    <row r="19" spans="2:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E19" s="12" t="str">
         <f>RES!D2</f>
         <v>INMELC</v>
       </c>
-      <c r="Y18" s="12">
+      <c r="Y19" s="12">
         <f>Y11</f>
         <v>2.1599999999999999E-4</v>
       </c>
     </row>
-    <row r="19" spans="2:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E19" s="12" t="str">
+    <row r="20" spans="2:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E20" s="12" t="str">
         <f>RES!I2</f>
         <v>INMLIMTHF</v>
       </c>
-      <c r="AC19" s="12">
+      <c r="AC20" s="12">
         <f>Z12</f>
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="20" spans="2:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="12" t="str">
-        <f>Processes_BASE!B17</f>
+    <row r="21" spans="2:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="12" t="str">
+        <f>Processes_BASE!B18</f>
         <v>UDACCO2S2</v>
       </c>
-      <c r="C20" s="12" t="str">
-        <f>Processes_BASE!C17</f>
+      <c r="C21" s="12" t="str">
+        <f>Processes_BASE!C18</f>
         <v>Direct Air Capture for CO2S (cheaper option)</v>
       </c>
-      <c r="D20" s="12" t="str">
-        <f>Processes_BASE!D17</f>
+      <c r="D21" s="12" t="str">
+        <f>Processes_BASE!D18</f>
         <v>PJ,PJa</v>
       </c>
-      <c r="F20" s="12" t="str">
+      <c r="F21" s="12" t="str">
         <f>F10</f>
         <v>CO2CAPT</v>
       </c>
-      <c r="H20" s="12">
+      <c r="H21" s="12">
         <v>1</v>
       </c>
-      <c r="L20" s="12">
-        <f>0.6*11.703/-PMT(8.2%,M20,1,0,1)</f>
+      <c r="L21" s="12">
+        <f>0.6*11.703/-PMT(8.2%,M21,1,0,1)</f>
         <v>79.735951567834164</v>
       </c>
-      <c r="M20" s="12">
+      <c r="M21" s="12">
         <v>25</v>
       </c>
-      <c r="N20" s="12">
+      <c r="N21" s="12">
         <v>-1</v>
       </c>
-      <c r="V20" s="12">
+      <c r="V21" s="12">
         <v>-1</v>
       </c>
-      <c r="W20" s="12">
+      <c r="W21" s="12">
         <v>1</v>
       </c>
-      <c r="X20" s="45">
+      <c r="X21" s="45">
         <v>1</v>
       </c>
     </row>
@@ -11033,18 +11150,43 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="157697" r:id="rId4" name="cmdTechNameAndDesc">
+        <control shapeId="157703" r:id="rId4" name="cmdAddParamQualifier2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="157703" r:id="rId4" name="cmdAddParamQualifier2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="157702" r:id="rId6" name="cmdCheckTechDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>847725</xdr:colOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>209550</xdr:rowOff>
               </to>
@@ -11053,57 +11195,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="157697" r:id="rId4" name="cmdTechNameAndDesc"/>
+        <control shapeId="157702" r:id="rId6" name="cmdCheckTechDataSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="157698" r:id="rId6" name="cmdCommIN">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+        <control shapeId="157701" r:id="rId8" name="cmdAddParamQualifier1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>619125</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="157698" r:id="rId6" name="cmdCommIN"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="157699" r:id="rId8" name="cmdCommOUT">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>619125</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="157699" r:id="rId8" name="cmdCommOUT"/>
+        <control shapeId="157701" r:id="rId8" name="cmdAddParamQualifier1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -11133,43 +11250,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="157701" r:id="rId12" name="cmdAddParamQualifier1">
+        <control shapeId="157699" r:id="rId12" name="cmdCommOUT">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
+                <xdr:col>5</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="157701" r:id="rId12" name="cmdAddParamQualifier1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="157702" r:id="rId14" name="cmdCheckTechDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>619125</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>209550</xdr:rowOff>
               </to>
@@ -11178,32 +11270,57 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="157702" r:id="rId14" name="cmdCheckTechDataSheet"/>
+        <control shapeId="157699" r:id="rId12" name="cmdCommOUT"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="157703" r:id="rId16" name="cmdAddParamQualifier2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+        <control shapeId="157698" r:id="rId14" name="cmdCommIN">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>619125</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="157703" r:id="rId16" name="cmdAddParamQualifier2"/>
+        <control shapeId="157698" r:id="rId14" name="cmdCommIN"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="157697" r:id="rId16" name="cmdTechNameAndDesc">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>847725</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="157697" r:id="rId16" name="cmdTechNameAndDesc"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -11852,7 +11969,7 @@
     </row>
     <row r="30" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C30" s="80" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D30">
         <f>E8</f>
@@ -11865,7 +11982,7 @@
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C31" s="80" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D31">
         <f>E10</f>
@@ -11878,7 +11995,7 @@
     </row>
     <row r="32" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C32" s="80" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D32">
         <f>D30-D31</f>
@@ -12240,8 +12357,183 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="102401" r:id="rId4" name="cmdConstrNameAndDesc">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
+        <control shapeId="102409" r:id="rId4" name="cmdAddParamQualifier2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>819150</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102409" r:id="rId4" name="cmdAddParamQualifier2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102408" r:id="rId6" name="cmdTimeSlice">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>238125</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102408" r:id="rId6" name="cmdTimeSlice"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102407" r:id="rId8" name="cmdCommName">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>238125</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102407" r:id="rId8" name="cmdCommName"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102405" r:id="rId10" name="cmdAddParamQualifier1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>819150</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102405" r:id="rId10" name="cmdAddParamQualifier1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102404" r:id="rId12" name="cmdCheckConstrDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>238125</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102404" r:id="rId12" name="cmdCheckConstrDataSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102403" r:id="rId14" name="cmdAddParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>819150</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102403" r:id="rId14" name="cmdAddParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102402" r:id="rId16" name="cmdProcName">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>238125</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102402" r:id="rId16" name="cmdProcName"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102401" r:id="rId18" name="cmdConstrNameAndDesc">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -12260,182 +12552,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="102401" r:id="rId4" name="cmdConstrNameAndDesc"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102402" r:id="rId6" name="cmdProcName">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>238125</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102402" r:id="rId6" name="cmdProcName"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102403" r:id="rId8" name="cmdAddParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>819150</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102403" r:id="rId8" name="cmdAddParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102404" r:id="rId10" name="cmdCheckConstrDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>238125</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102404" r:id="rId10" name="cmdCheckConstrDataSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102405" r:id="rId12" name="cmdAddParamQualifier1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>819150</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102405" r:id="rId12" name="cmdAddParamQualifier1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102407" r:id="rId14" name="cmdCommName">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>238125</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102407" r:id="rId14" name="cmdCommName"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102408" r:id="rId16" name="cmdTimeSlice">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>238125</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102408" r:id="rId16" name="cmdTimeSlice"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102409" r:id="rId18" name="cmdAddParamQualifier2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>819150</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102409" r:id="rId18" name="cmdAddParamQualifier2"/>
+        <control shapeId="102401" r:id="rId18" name="cmdConstrNameAndDesc"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -12584,8 +12701,83 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="55297" r:id="rId4" name="cmdCheckItemsSheet">
+        <control shapeId="55300" r:id="rId4" name="cmdSpecifySets">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="55300" r:id="rId4" name="cmdSpecifySets"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="55299" r:id="rId6" name="cmdSpecifyUnits">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="55299" r:id="rId6" name="cmdSpecifyUnits"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="55298" r:id="rId8" name="cmdSpecifyComponent">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="55298" r:id="rId8" name="cmdSpecifyComponent"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="55297" r:id="rId10" name="cmdCheckItemsSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -12604,82 +12796,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="55297" r:id="rId4" name="cmdCheckItemsSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="55298" r:id="rId6" name="cmdSpecifyComponent">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="55298" r:id="rId6" name="cmdSpecifyComponent"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="55299" r:id="rId8" name="cmdSpecifyUnits">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="55299" r:id="rId8" name="cmdSpecifyUnits"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="55300" r:id="rId10" name="cmdSpecifySets">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="55300" r:id="rId10" name="cmdSpecifySets"/>
+        <control shapeId="55297" r:id="rId10" name="cmdCheckItemsSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -12753,8 +12870,233 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="57354" r:id="rId4" name="cmdPopulateDataYears">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+        <control shapeId="57353" r:id="rId4" name="cmdSpecifyIEOptcode">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57353" r:id="rId4" name="cmdSpecifyIEOptcode"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57352" r:id="rId6" name="cmdSpecifyArg6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57352" r:id="rId6" name="cmdSpecifyArg6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57351" r:id="rId8" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57351" r:id="rId8" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57350" r:id="rId10" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57350" r:id="rId10" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57349" r:id="rId12" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57349" r:id="rId12" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57348" r:id="rId14" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57348" r:id="rId14" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57347" r:id="rId16" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57347" r:id="rId16" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57346" r:id="rId18" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57346" r:id="rId18" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57345" r:id="rId20" name="cmdCheckTSDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57345" r:id="rId20" name="cmdCheckTSDataSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57354" r:id="rId22" name="cmdPopulateDataYears">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId23">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -12773,232 +13115,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="57354" r:id="rId4" name="cmdPopulateDataYears"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57345" r:id="rId6" name="cmdCheckTSDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57345" r:id="rId6" name="cmdCheckTSDataSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57346" r:id="rId8" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57346" r:id="rId8" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57347" r:id="rId10" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57347" r:id="rId10" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57348" r:id="rId12" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57348" r:id="rId12" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57349" r:id="rId14" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57349" r:id="rId14" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57350" r:id="rId16" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57350" r:id="rId16" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57351" r:id="rId18" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57351" r:id="rId18" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57352" r:id="rId20" name="cmdSpecifyArg6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57352" r:id="rId20" name="cmdSpecifyArg6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57353" r:id="rId22" name="cmdSpecifyIEOptcode">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId23">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57353" r:id="rId22" name="cmdSpecifyIEOptcode"/>
+        <control shapeId="57354" r:id="rId22" name="cmdPopulateDataYears"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -13062,8 +13179,183 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="58369" r:id="rId4" name="cmdCheckTIDDataSheet">
+        <control shapeId="58376" r:id="rId4" name="cmdSpecifyArg6">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58376" r:id="rId4" name="cmdSpecifyArg6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58375" r:id="rId6" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58375" r:id="rId6" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58374" r:id="rId8" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58374" r:id="rId8" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58373" r:id="rId10" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58373" r:id="rId10" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58372" r:id="rId12" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58372" r:id="rId12" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58371" r:id="rId14" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58371" r:id="rId14" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58370" r:id="rId16" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58370" r:id="rId16" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58369" r:id="rId18" name="cmdCheckTIDDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -13082,182 +13374,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="58369" r:id="rId4" name="cmdCheckTIDDataSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58370" r:id="rId6" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58370" r:id="rId6" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58371" r:id="rId8" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58371" r:id="rId8" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58372" r:id="rId10" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58372" r:id="rId10" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58373" r:id="rId12" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58373" r:id="rId12" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58374" r:id="rId14" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58374" r:id="rId14" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58375" r:id="rId16" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58375" r:id="rId16" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58376" r:id="rId18" name="cmdSpecifyArg6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58376" r:id="rId18" name="cmdSpecifyArg6"/>
+        <control shapeId="58369" r:id="rId18" name="cmdCheckTIDDataSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -13332,8 +13449,233 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="59402" r:id="rId3" name="cmdPopulateDataYears">
+        <control shapeId="59401" r:id="rId3" name="cmdSpecifyIEOptcode">
           <controlPr defaultSize="0" autoLine="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>476250</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59401" r:id="rId3" name="cmdSpecifyIEOptcode"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59400" r:id="rId5" name="cmdSpecifyArg6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59400" r:id="rId5" name="cmdSpecifyArg6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59399" r:id="rId7" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59399" r:id="rId7" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59398" r:id="rId9" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59398" r:id="rId9" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59397" r:id="rId11" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId12">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59397" r:id="rId11" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59396" r:id="rId13" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId14">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59396" r:id="rId13" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59395" r:id="rId15" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId16">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59395" r:id="rId15" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59394" r:id="rId17" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59394" r:id="rId17" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59393" r:id="rId19" name="cmdCheckTSandTIDDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>857250</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59393" r:id="rId19" name="cmdCheckTSandTIDDataSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59402" r:id="rId21" name="cmdPopulateDataYears">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId22">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -13352,232 +13694,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="59402" r:id="rId3" name="cmdPopulateDataYears"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59393" r:id="rId5" name="cmdCheckTSandTIDDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>857250</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59393" r:id="rId5" name="cmdCheckTSandTIDDataSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59394" r:id="rId7" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59394" r:id="rId7" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59395" r:id="rId9" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59395" r:id="rId9" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59396" r:id="rId11" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId12">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59396" r:id="rId11" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59397" r:id="rId13" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId14">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59397" r:id="rId13" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59398" r:id="rId15" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId16">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59398" r:id="rId15" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59399" r:id="rId17" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59399" r:id="rId17" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59400" r:id="rId19" name="cmdSpecifyArg6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59400" r:id="rId19" name="cmdSpecifyArg6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59401" r:id="rId21" name="cmdSpecifyIEOptcode">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId22">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>476250</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59401" r:id="rId21" name="cmdSpecifyIEOptcode"/>
+        <control shapeId="59402" r:id="rId21" name="cmdPopulateDataYears"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -13816,8 +13933,233 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="60427" r:id="rId3" name="cmdPopulateDataYears">
+        <control shapeId="60426" r:id="rId3" name="cmdCheckTSTradeSheet">
           <controlPr defaultSize="0" autoLine="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>838200</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60426" r:id="rId3" name="cmdCheckTSTradeSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60425" r:id="rId5" name="cmdSpecifyIEOptcode">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60425" r:id="rId5" name="cmdSpecifyIEOptcode"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60424" r:id="rId7" name="cmdSpecifyArg6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60424" r:id="rId7" name="cmdSpecifyArg6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60423" r:id="rId9" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60423" r:id="rId9" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60422" r:id="rId11" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId12">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60422" r:id="rId11" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60421" r:id="rId13" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId14">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60421" r:id="rId13" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60420" r:id="rId15" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId16">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60420" r:id="rId15" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60419" r:id="rId17" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60419" r:id="rId17" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60418" r:id="rId19" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60418" r:id="rId19" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60427" r:id="rId21" name="cmdPopulateDataYears">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId22">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -13836,232 +14178,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="60427" r:id="rId3" name="cmdPopulateDataYears"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60418" r:id="rId5" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60418" r:id="rId5" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60419" r:id="rId7" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60419" r:id="rId7" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60420" r:id="rId9" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60420" r:id="rId9" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60421" r:id="rId11" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId12">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60421" r:id="rId11" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60422" r:id="rId13" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId14">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60422" r:id="rId13" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60423" r:id="rId15" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId16">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60423" r:id="rId15" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60424" r:id="rId17" name="cmdSpecifyArg6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60424" r:id="rId17" name="cmdSpecifyArg6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60425" r:id="rId19" name="cmdSpecifyIEOptcode">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60425" r:id="rId19" name="cmdSpecifyIEOptcode"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60426" r:id="rId21" name="cmdCheckTSTradeSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId22">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>838200</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60426" r:id="rId21" name="cmdCheckTSTradeSheet"/>
+        <control shapeId="60427" r:id="rId21" name="cmdPopulateDataYears"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -14138,8 +14255,183 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="61442" r:id="rId4" name="cmdCheckTIDTradeSheet">
+        <control shapeId="61449" r:id="rId4" name="cmdSpecifyArg6">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61449" r:id="rId4" name="cmdSpecifyArg6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61448" r:id="rId6" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61448" r:id="rId6" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61447" r:id="rId8" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61447" r:id="rId8" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61446" r:id="rId10" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61446" r:id="rId10" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61445" r:id="rId12" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61445" r:id="rId12" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61444" r:id="rId14" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61444" r:id="rId14" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61443" r:id="rId16" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61443" r:id="rId16" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61442" r:id="rId18" name="cmdCheckTIDTradeSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -14158,182 +14450,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="61442" r:id="rId4" name="cmdCheckTIDTradeSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61443" r:id="rId6" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61443" r:id="rId6" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61444" r:id="rId8" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61444" r:id="rId8" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61445" r:id="rId10" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61445" r:id="rId10" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61446" r:id="rId12" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61446" r:id="rId12" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61447" r:id="rId14" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61447" r:id="rId14" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61448" r:id="rId16" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61448" r:id="rId16" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61449" r:id="rId18" name="cmdSpecifyArg6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61449" r:id="rId18" name="cmdSpecifyArg6"/>
+        <control shapeId="61442" r:id="rId18" name="cmdCheckTIDTradeSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -14419,8 +14536,233 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="62475" r:id="rId4" name="cmdPopulateDataYears">
+        <control shapeId="62474" r:id="rId4" name="cmdSpecifyIEOptcode">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62474" r:id="rId4" name="cmdSpecifyIEOptcode"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62473" r:id="rId6" name="cmdSpecifyArg6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62473" r:id="rId6" name="cmdSpecifyArg6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62472" r:id="rId8" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62472" r:id="rId8" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62471" r:id="rId10" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62471" r:id="rId10" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62470" r:id="rId12" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62470" r:id="rId12" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62469" r:id="rId14" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62469" r:id="rId14" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62468" r:id="rId16" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62468" r:id="rId16" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62467" r:id="rId18" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62467" r:id="rId18" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62466" r:id="rId20" name="cmdCheckTSandTIDTradeSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62466" r:id="rId20" name="cmdCheckTSandTIDTradeSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62475" r:id="rId22" name="cmdPopulateDataYears">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId23">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -14439,232 +14781,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="62475" r:id="rId4" name="cmdPopulateDataYears"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62466" r:id="rId6" name="cmdCheckTSandTIDTradeSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62466" r:id="rId6" name="cmdCheckTSandTIDTradeSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62467" r:id="rId8" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62467" r:id="rId8" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62468" r:id="rId10" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62468" r:id="rId10" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62469" r:id="rId12" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62469" r:id="rId12" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62470" r:id="rId14" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62470" r:id="rId14" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62471" r:id="rId16" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62471" r:id="rId16" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62472" r:id="rId18" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62472" r:id="rId18" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62473" r:id="rId20" name="cmdSpecifyArg6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62473" r:id="rId20" name="cmdSpecifyArg6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62474" r:id="rId22" name="cmdSpecifyIEOptcode">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId23">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62474" r:id="rId22" name="cmdSpecifyIEOptcode"/>
+        <control shapeId="62475" r:id="rId22" name="cmdPopulateDataYears"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -14676,10 +14793,10 @@
   <sheetPr codeName="Sheet29">
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="B1:AP105"/>
+  <dimension ref="B1:AP110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="R35" sqref="R35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14726,19 +14843,19 @@
         <v>196</v>
       </c>
       <c r="I2" s="111" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J2" s="109" t="s">
         <v>193</v>
       </c>
       <c r="K2" s="109" t="s">
+        <v>261</v>
+      </c>
+      <c r="L2" s="128" t="s">
+        <v>255</v>
+      </c>
+      <c r="M2" s="128" t="s">
         <v>263</v>
-      </c>
-      <c r="L2" s="129" t="s">
-        <v>256</v>
-      </c>
-      <c r="M2" s="129" t="s">
-        <v>265</v>
       </c>
       <c r="N2" s="120" t="s">
         <v>211</v>
@@ -14791,19 +14908,19 @@
         <v>195</v>
       </c>
       <c r="I3" s="100" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J3" s="120" t="s">
         <v>208</v>
       </c>
       <c r="K3" s="120" t="s">
+        <v>262</v>
+      </c>
+      <c r="L3" s="128" t="s">
+        <v>256</v>
+      </c>
+      <c r="M3" s="128" t="s">
         <v>264</v>
-      </c>
-      <c r="L3" s="129" t="s">
-        <v>257</v>
-      </c>
-      <c r="M3" s="129" t="s">
-        <v>266</v>
       </c>
       <c r="N3" s="120" t="s">
         <v>209</v>
@@ -15611,9 +15728,12 @@
       <c r="N25" s="61"/>
       <c r="O25" s="61"/>
       <c r="P25" s="61"/>
-      <c r="Q25" s="62"/>
-      <c r="S25" s="64"/>
-      <c r="T25" s="61"/>
+      <c r="Q25" s="70"/>
+      <c r="R25" s="75" t="s">
+        <v>269</v>
+      </c>
+      <c r="S25" s="73"/>
+      <c r="T25" s="68"/>
       <c r="U25" s="63"/>
       <c r="Z25" s="61"/>
       <c r="AA25" s="61"/>
@@ -15635,22 +15755,20 @@
       <c r="D26" s="61"/>
       <c r="E26" s="61"/>
       <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="61"/>
-      <c r="J26" s="61"/>
-      <c r="K26" s="61"/>
-      <c r="L26" s="61"/>
-      <c r="M26" s="61"/>
-      <c r="N26" s="61"/>
-      <c r="O26" s="61"/>
-      <c r="P26" s="61"/>
-      <c r="Q26" s="70"/>
-      <c r="R26" s="75" t="s">
-        <v>258</v>
-      </c>
-      <c r="S26" s="73"/>
-      <c r="T26" s="68"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="68"/>
+      <c r="J26" s="68"/>
+      <c r="K26" s="68"/>
+      <c r="L26" s="68"/>
+      <c r="M26" s="68"/>
+      <c r="N26" s="68"/>
+      <c r="O26" s="68"/>
+      <c r="P26" s="68"/>
+      <c r="Q26" s="68"/>
+      <c r="R26" s="104"/>
+      <c r="S26" s="72"/>
+      <c r="T26" s="71"/>
       <c r="U26" s="63"/>
       <c r="Z26" s="61"/>
       <c r="AA26" s="61"/>
@@ -15672,7 +15790,7 @@
       <c r="D27" s="61"/>
       <c r="E27" s="61"/>
       <c r="F27" s="61"/>
-      <c r="G27" s="63"/>
+      <c r="G27" s="65"/>
       <c r="H27" s="68"/>
       <c r="I27" s="68"/>
       <c r="J27" s="68"/>
@@ -15684,8 +15802,6 @@
       <c r="P27" s="68"/>
       <c r="Q27" s="68"/>
       <c r="R27" s="104"/>
-      <c r="S27" s="72"/>
-      <c r="T27" s="71"/>
       <c r="U27" s="63"/>
       <c r="Z27" s="61"/>
       <c r="AA27" s="61"/>
@@ -15707,18 +15823,22 @@
       <c r="D28" s="61"/>
       <c r="E28" s="61"/>
       <c r="F28" s="61"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="68"/>
-      <c r="I28" s="68"/>
-      <c r="J28" s="68"/>
-      <c r="K28" s="68"/>
-      <c r="L28" s="68"/>
-      <c r="M28" s="68"/>
-      <c r="N28" s="68"/>
-      <c r="O28" s="68"/>
-      <c r="P28" s="68"/>
-      <c r="Q28" s="68"/>
-      <c r="R28" s="104"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="61"/>
+      <c r="L28" s="61"/>
+      <c r="M28" s="61"/>
+      <c r="N28" s="61"/>
+      <c r="O28" s="61"/>
+      <c r="P28" s="61"/>
+      <c r="Q28" s="62"/>
+      <c r="R28" s="129" t="s">
+        <v>271</v>
+      </c>
+      <c r="S28" s="64"/>
+      <c r="T28" s="62"/>
       <c r="U28" s="63"/>
       <c r="Z28" s="61"/>
       <c r="AA28" s="61"/>
@@ -15751,11 +15871,8 @@
       <c r="O29" s="61"/>
       <c r="P29" s="61"/>
       <c r="Q29" s="62"/>
-      <c r="R29" s="127" t="s">
-        <v>247</v>
-      </c>
       <c r="S29" s="64"/>
-      <c r="T29" s="62"/>
+      <c r="T29" s="61"/>
       <c r="U29" s="63"/>
       <c r="Z29" s="61"/>
       <c r="AA29" s="61"/>
@@ -15821,9 +15938,12 @@
       <c r="N31" s="61"/>
       <c r="O31" s="61"/>
       <c r="P31" s="61"/>
-      <c r="Q31" s="62"/>
-      <c r="S31" s="64"/>
-      <c r="T31" s="61"/>
+      <c r="Q31" s="70"/>
+      <c r="R31" s="75" t="s">
+        <v>270</v>
+      </c>
+      <c r="S31" s="73"/>
+      <c r="T31" s="68"/>
       <c r="U31" s="63"/>
       <c r="Z31" s="61"/>
       <c r="AA31" s="61"/>
@@ -15845,10 +15965,10 @@
       <c r="D32" s="61"/>
       <c r="E32" s="61"/>
       <c r="F32" s="61"/>
-      <c r="G32" s="61"/>
-      <c r="H32" s="61"/>
-      <c r="I32" s="61"/>
-      <c r="J32" s="65"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="68"/>
+      <c r="I32" s="68"/>
+      <c r="J32" s="68"/>
       <c r="K32" s="68"/>
       <c r="L32" s="68"/>
       <c r="M32" s="68"/>
@@ -15856,11 +15976,9 @@
       <c r="O32" s="68"/>
       <c r="P32" s="68"/>
       <c r="Q32" s="68"/>
-      <c r="R32" s="75" t="s">
-        <v>252</v>
-      </c>
-      <c r="S32" s="64"/>
-      <c r="T32" s="61"/>
+      <c r="R32" s="104"/>
+      <c r="S32" s="72"/>
+      <c r="T32" s="71"/>
       <c r="U32" s="63"/>
       <c r="Z32" s="61"/>
       <c r="AA32" s="61"/>
@@ -15880,9 +15998,9 @@
     <row r="33" spans="3:42" x14ac:dyDescent="0.25">
       <c r="C33" s="64"/>
       <c r="D33" s="61"/>
-      <c r="E33" s="65"/>
-      <c r="F33" s="68"/>
-      <c r="G33" s="68"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="65"/>
       <c r="H33" s="68"/>
       <c r="I33" s="68"/>
       <c r="J33" s="68"/>
@@ -15893,9 +16011,7 @@
       <c r="O33" s="68"/>
       <c r="P33" s="68"/>
       <c r="Q33" s="68"/>
-      <c r="R33" s="77"/>
-      <c r="S33" s="73"/>
-      <c r="T33" s="68"/>
+      <c r="R33" s="104"/>
       <c r="U33" s="63"/>
       <c r="Z33" s="61"/>
       <c r="AA33" s="61"/>
@@ -15928,9 +16044,11 @@
       <c r="O34" s="61"/>
       <c r="P34" s="61"/>
       <c r="Q34" s="62"/>
-      <c r="R34" s="105"/>
+      <c r="R34" s="129" t="s">
+        <v>272</v>
+      </c>
       <c r="S34" s="64"/>
-      <c r="T34" s="61"/>
+      <c r="T34" s="62"/>
       <c r="U34" s="63"/>
       <c r="Z34" s="61"/>
       <c r="AA34" s="61"/>
@@ -15959,13 +16077,10 @@
       <c r="K35" s="61"/>
       <c r="L35" s="61"/>
       <c r="M35" s="61"/>
-      <c r="N35" s="65"/>
-      <c r="O35" s="68"/>
-      <c r="P35" s="68"/>
-      <c r="Q35" s="68"/>
-      <c r="R35" s="128" t="s">
-        <v>253</v>
-      </c>
+      <c r="N35" s="61"/>
+      <c r="O35" s="61"/>
+      <c r="P35" s="61"/>
+      <c r="Q35" s="62"/>
       <c r="S35" s="64"/>
       <c r="T35" s="61"/>
       <c r="U35" s="63"/>
@@ -16026,14 +16141,17 @@
       <c r="G37" s="61"/>
       <c r="H37" s="61"/>
       <c r="I37" s="61"/>
-      <c r="J37" s="61"/>
-      <c r="K37" s="61"/>
-      <c r="L37" s="61"/>
-      <c r="M37" s="61"/>
-      <c r="N37" s="61"/>
-      <c r="O37" s="61"/>
-      <c r="P37" s="61"/>
-      <c r="Q37" s="62"/>
+      <c r="J37" s="65"/>
+      <c r="K37" s="68"/>
+      <c r="L37" s="68"/>
+      <c r="M37" s="68"/>
+      <c r="N37" s="68"/>
+      <c r="O37" s="68"/>
+      <c r="P37" s="68"/>
+      <c r="Q37" s="68"/>
+      <c r="R37" s="75" t="s">
+        <v>251</v>
+      </c>
       <c r="S37" s="64"/>
       <c r="T37" s="61"/>
       <c r="U37" s="63"/>
@@ -16053,22 +16171,24 @@
       <c r="AP37" s="61"/>
     </row>
     <row r="38" spans="3:42" x14ac:dyDescent="0.25">
+      <c r="C38" s="64"/>
       <c r="D38" s="61"/>
-      <c r="E38" s="61"/>
-      <c r="F38" s="61"/>
-      <c r="G38" s="61"/>
-      <c r="H38" s="61"/>
-      <c r="I38" s="61"/>
-      <c r="J38" s="61"/>
-      <c r="K38" s="61"/>
-      <c r="L38" s="61"/>
-      <c r="M38" s="61"/>
-      <c r="N38" s="61"/>
-      <c r="O38" s="61"/>
-      <c r="P38" s="61"/>
-      <c r="Q38" s="62"/>
-      <c r="S38" s="64"/>
-      <c r="T38" s="61"/>
+      <c r="E38" s="65"/>
+      <c r="F38" s="68"/>
+      <c r="G38" s="68"/>
+      <c r="H38" s="68"/>
+      <c r="I38" s="68"/>
+      <c r="J38" s="68"/>
+      <c r="K38" s="68"/>
+      <c r="L38" s="68"/>
+      <c r="M38" s="68"/>
+      <c r="N38" s="68"/>
+      <c r="O38" s="68"/>
+      <c r="P38" s="68"/>
+      <c r="Q38" s="68"/>
+      <c r="R38" s="77"/>
+      <c r="S38" s="73"/>
+      <c r="T38" s="68"/>
       <c r="U38" s="63"/>
       <c r="Z38" s="61"/>
       <c r="AA38" s="61"/>
@@ -16086,6 +16206,7 @@
       <c r="AP38" s="61"/>
     </row>
     <row r="39" spans="3:42" x14ac:dyDescent="0.25">
+      <c r="C39" s="64"/>
       <c r="D39" s="61"/>
       <c r="E39" s="61"/>
       <c r="F39" s="61"/>
@@ -16100,6 +16221,7 @@
       <c r="O39" s="61"/>
       <c r="P39" s="61"/>
       <c r="Q39" s="62"/>
+      <c r="R39" s="105"/>
       <c r="S39" s="64"/>
       <c r="T39" s="61"/>
       <c r="U39" s="63"/>
@@ -16119,6 +16241,7 @@
       <c r="AP39" s="61"/>
     </row>
     <row r="40" spans="3:42" x14ac:dyDescent="0.25">
+      <c r="C40" s="64"/>
       <c r="D40" s="61"/>
       <c r="E40" s="61"/>
       <c r="F40" s="61"/>
@@ -16129,10 +16252,13 @@
       <c r="K40" s="61"/>
       <c r="L40" s="61"/>
       <c r="M40" s="61"/>
-      <c r="N40" s="61"/>
-      <c r="O40" s="61"/>
-      <c r="P40" s="61"/>
-      <c r="Q40" s="62"/>
+      <c r="N40" s="65"/>
+      <c r="O40" s="68"/>
+      <c r="P40" s="68"/>
+      <c r="Q40" s="68"/>
+      <c r="R40" s="127" t="s">
+        <v>252</v>
+      </c>
       <c r="S40" s="64"/>
       <c r="T40" s="61"/>
       <c r="U40" s="63"/>
@@ -16152,6 +16278,7 @@
       <c r="AP40" s="61"/>
     </row>
     <row r="41" spans="3:42" x14ac:dyDescent="0.25">
+      <c r="C41" s="64"/>
       <c r="D41" s="61"/>
       <c r="E41" s="61"/>
       <c r="F41" s="61"/>
@@ -16185,6 +16312,7 @@
       <c r="AP41" s="61"/>
     </row>
     <row r="42" spans="3:42" x14ac:dyDescent="0.25">
+      <c r="C42" s="64"/>
       <c r="D42" s="61"/>
       <c r="E42" s="61"/>
       <c r="F42" s="61"/>
@@ -18296,6 +18424,171 @@
       <c r="AO105" s="61"/>
       <c r="AP105" s="61"/>
     </row>
+    <row r="106" spans="4:42" x14ac:dyDescent="0.25">
+      <c r="D106" s="61"/>
+      <c r="E106" s="61"/>
+      <c r="F106" s="61"/>
+      <c r="G106" s="61"/>
+      <c r="H106" s="61"/>
+      <c r="I106" s="61"/>
+      <c r="J106" s="61"/>
+      <c r="K106" s="61"/>
+      <c r="L106" s="61"/>
+      <c r="M106" s="61"/>
+      <c r="N106" s="61"/>
+      <c r="O106" s="61"/>
+      <c r="P106" s="61"/>
+      <c r="Q106" s="62"/>
+      <c r="S106" s="64"/>
+      <c r="T106" s="61"/>
+      <c r="U106" s="63"/>
+      <c r="Z106" s="61"/>
+      <c r="AA106" s="61"/>
+      <c r="AB106" s="61"/>
+      <c r="AC106" s="61"/>
+      <c r="AD106" s="61"/>
+      <c r="AE106" s="61"/>
+      <c r="AF106" s="61"/>
+      <c r="AJ106" s="61"/>
+      <c r="AK106" s="61"/>
+      <c r="AL106" s="61"/>
+      <c r="AM106" s="61"/>
+      <c r="AN106" s="61"/>
+      <c r="AO106" s="61"/>
+      <c r="AP106" s="61"/>
+    </row>
+    <row r="107" spans="4:42" x14ac:dyDescent="0.25">
+      <c r="D107" s="61"/>
+      <c r="E107" s="61"/>
+      <c r="F107" s="61"/>
+      <c r="G107" s="61"/>
+      <c r="H107" s="61"/>
+      <c r="I107" s="61"/>
+      <c r="J107" s="61"/>
+      <c r="K107" s="61"/>
+      <c r="L107" s="61"/>
+      <c r="M107" s="61"/>
+      <c r="N107" s="61"/>
+      <c r="O107" s="61"/>
+      <c r="P107" s="61"/>
+      <c r="Q107" s="62"/>
+      <c r="S107" s="64"/>
+      <c r="T107" s="61"/>
+      <c r="U107" s="63"/>
+      <c r="Z107" s="61"/>
+      <c r="AA107" s="61"/>
+      <c r="AB107" s="61"/>
+      <c r="AC107" s="61"/>
+      <c r="AD107" s="61"/>
+      <c r="AE107" s="61"/>
+      <c r="AF107" s="61"/>
+      <c r="AJ107" s="61"/>
+      <c r="AK107" s="61"/>
+      <c r="AL107" s="61"/>
+      <c r="AM107" s="61"/>
+      <c r="AN107" s="61"/>
+      <c r="AO107" s="61"/>
+      <c r="AP107" s="61"/>
+    </row>
+    <row r="108" spans="4:42" x14ac:dyDescent="0.25">
+      <c r="D108" s="61"/>
+      <c r="E108" s="61"/>
+      <c r="F108" s="61"/>
+      <c r="G108" s="61"/>
+      <c r="H108" s="61"/>
+      <c r="I108" s="61"/>
+      <c r="J108" s="61"/>
+      <c r="K108" s="61"/>
+      <c r="L108" s="61"/>
+      <c r="M108" s="61"/>
+      <c r="N108" s="61"/>
+      <c r="O108" s="61"/>
+      <c r="P108" s="61"/>
+      <c r="Q108" s="62"/>
+      <c r="S108" s="64"/>
+      <c r="T108" s="61"/>
+      <c r="U108" s="63"/>
+      <c r="Z108" s="61"/>
+      <c r="AA108" s="61"/>
+      <c r="AB108" s="61"/>
+      <c r="AC108" s="61"/>
+      <c r="AD108" s="61"/>
+      <c r="AE108" s="61"/>
+      <c r="AF108" s="61"/>
+      <c r="AJ108" s="61"/>
+      <c r="AK108" s="61"/>
+      <c r="AL108" s="61"/>
+      <c r="AM108" s="61"/>
+      <c r="AN108" s="61"/>
+      <c r="AO108" s="61"/>
+      <c r="AP108" s="61"/>
+    </row>
+    <row r="109" spans="4:42" x14ac:dyDescent="0.25">
+      <c r="D109" s="61"/>
+      <c r="E109" s="61"/>
+      <c r="F109" s="61"/>
+      <c r="G109" s="61"/>
+      <c r="H109" s="61"/>
+      <c r="I109" s="61"/>
+      <c r="J109" s="61"/>
+      <c r="K109" s="61"/>
+      <c r="L109" s="61"/>
+      <c r="M109" s="61"/>
+      <c r="N109" s="61"/>
+      <c r="O109" s="61"/>
+      <c r="P109" s="61"/>
+      <c r="Q109" s="62"/>
+      <c r="S109" s="64"/>
+      <c r="T109" s="61"/>
+      <c r="U109" s="63"/>
+      <c r="Z109" s="61"/>
+      <c r="AA109" s="61"/>
+      <c r="AB109" s="61"/>
+      <c r="AC109" s="61"/>
+      <c r="AD109" s="61"/>
+      <c r="AE109" s="61"/>
+      <c r="AF109" s="61"/>
+      <c r="AJ109" s="61"/>
+      <c r="AK109" s="61"/>
+      <c r="AL109" s="61"/>
+      <c r="AM109" s="61"/>
+      <c r="AN109" s="61"/>
+      <c r="AO109" s="61"/>
+      <c r="AP109" s="61"/>
+    </row>
+    <row r="110" spans="4:42" x14ac:dyDescent="0.25">
+      <c r="D110" s="61"/>
+      <c r="E110" s="61"/>
+      <c r="F110" s="61"/>
+      <c r="G110" s="61"/>
+      <c r="H110" s="61"/>
+      <c r="I110" s="61"/>
+      <c r="J110" s="61"/>
+      <c r="K110" s="61"/>
+      <c r="L110" s="61"/>
+      <c r="M110" s="61"/>
+      <c r="N110" s="61"/>
+      <c r="O110" s="61"/>
+      <c r="P110" s="61"/>
+      <c r="Q110" s="62"/>
+      <c r="S110" s="64"/>
+      <c r="T110" s="61"/>
+      <c r="U110" s="63"/>
+      <c r="Z110" s="61"/>
+      <c r="AA110" s="61"/>
+      <c r="AB110" s="61"/>
+      <c r="AC110" s="61"/>
+      <c r="AD110" s="61"/>
+      <c r="AE110" s="61"/>
+      <c r="AF110" s="61"/>
+      <c r="AJ110" s="61"/>
+      <c r="AK110" s="61"/>
+      <c r="AL110" s="61"/>
+      <c r="AM110" s="61"/>
+      <c r="AN110" s="61"/>
+      <c r="AO110" s="61"/>
+      <c r="AP110" s="61"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -18394,8 +18687,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="63489" r:id="rId4" name="cmdCheckRegionsSheet">
+        <control shapeId="63490" r:id="rId4" name="cmdSpecifySets">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="63490" r:id="rId4" name="cmdSpecifySets"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="63489" r:id="rId6" name="cmdCheckRegionsSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -18414,32 +18732,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="63489" r:id="rId4" name="cmdCheckRegionsSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="63490" r:id="rId6" name="cmdSpecifySets">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="63490" r:id="rId6" name="cmdSpecifySets"/>
+        <control shapeId="63489" r:id="rId6" name="cmdCheckRegionsSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -18500,18 +18793,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="71681" r:id="rId4" name="cmdSpecifySets">
+        <control shapeId="71683" r:id="rId4" name="cmdCommUnit">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1924050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>676275</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -18520,7 +18813,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="71681" r:id="rId4" name="cmdSpecifySets"/>
+        <control shapeId="71683" r:id="rId4" name="cmdCommUnit"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -18550,18 +18843,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="71683" r:id="rId8" name="cmdCommUnit">
+        <control shapeId="71681" r:id="rId8" name="cmdSpecifySets">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>676275</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1924050</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -18570,7 +18863,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="71683" r:id="rId8" name="cmdCommUnit"/>
+        <control shapeId="71681" r:id="rId8" name="cmdSpecifySets"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -18784,18 +19077,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="125955" r:id="rId4" name="cmdCommUnit">
+        <control shapeId="125953" r:id="rId4" name="cmdSpecifySets">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>676275</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1924050</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -18804,7 +19097,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="125955" r:id="rId4" name="cmdCommUnit"/>
+        <control shapeId="125953" r:id="rId4" name="cmdSpecifySets"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -18834,18 +19127,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="125953" r:id="rId8" name="cmdSpecifySets">
+        <control shapeId="125955" r:id="rId8" name="cmdCommUnit">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1924050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>676275</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -18854,7 +19147,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="125953" r:id="rId8" name="cmdSpecifySets"/>
+        <control shapeId="125955" r:id="rId8" name="cmdCommUnit"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -18927,18 +19220,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="80899" r:id="rId4" name="cmdProcUnits">
+        <control shapeId="80897" r:id="rId4" name="cmdSpecifySets">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1924050</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -18947,7 +19240,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="80899" r:id="rId4" name="cmdProcUnits"/>
+        <control shapeId="80897" r:id="rId4" name="cmdSpecifySets"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -18977,18 +19270,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="80897" r:id="rId8" name="cmdSpecifySets">
+        <control shapeId="80899" r:id="rId8" name="cmdProcUnits">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1924050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -18997,7 +19290,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="80897" r:id="rId8" name="cmdSpecifySets"/>
+        <control shapeId="80899" r:id="rId8" name="cmdProcUnits"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -19073,18 +19366,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="101377" r:id="rId4" name="cmdConstraintSets">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
+        <control shapeId="101379" r:id="rId4" name="cmdConstraintUnit">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
+                <xdr:col>3</xdr:col>
                 <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
@@ -19093,7 +19386,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="101377" r:id="rId4" name="cmdConstraintSets"/>
+        <control shapeId="101379" r:id="rId4" name="cmdConstraintUnit"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -19123,18 +19416,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="101379" r:id="rId8" name="cmdConstraintUnit">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+        <control shapeId="101377" r:id="rId8" name="cmdConstraintSets">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
+                <xdr:col>4</xdr:col>
                 <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
@@ -19143,7 +19436,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="101379" r:id="rId8" name="cmdConstraintUnit"/>
+        <control shapeId="101377" r:id="rId8" name="cmdConstraintSets"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -19200,44 +19493,19 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="90116" r:id="rId4" name="cmdCheckCommDataSheet">
+        <control shapeId="90118" r:id="rId4" name="cmdAddParamQualifier2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="90116" r:id="rId4" name="cmdCheckCommDataSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="90115" r:id="rId6" name="cmdAddParamQualifier1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:row>6</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
@@ -19245,7 +19513,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="90115" r:id="rId6" name="cmdAddParamQualifier1"/>
+        <control shapeId="90118" r:id="rId4" name="cmdAddParamQualifier2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="90113" r:id="rId6" name="cmdAddParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="90113" r:id="rId6" name="cmdAddParameter"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -19275,44 +19568,19 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="90113" r:id="rId10" name="cmdAddParameter">
+        <control shapeId="90115" r:id="rId10" name="cmdAddParamQualifier1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="90113" r:id="rId10" name="cmdAddParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="90118" r:id="rId12" name="cmdAddParamQualifier2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>6</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
@@ -19320,7 +19588,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="90118" r:id="rId12" name="cmdAddParamQualifier2"/>
+        <control shapeId="90115" r:id="rId10" name="cmdAddParamQualifier1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="90116" r:id="rId12" name="cmdCheckCommDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="90116" r:id="rId12" name="cmdCheckCommDataSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
